--- a/scripts/src/config/资产配置分类表.xlsx
+++ b/scripts/src/config/资产配置分类表.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\finance-data\scripts\src\config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\finance-data\Scripts\src\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2C3CA97-A209-4E74-B6A9-B25891BDB0A1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3036DEB0-7ED1-4124-B4C3-593533E82089}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8820" yWindow="2685" windowWidth="28800" windowHeight="15435" xr2:uid="{A2CED1EC-343A-4CFC-976C-17F1726B3D68}"/>
+    <workbookView xWindow="8475" yWindow="2340" windowWidth="28800" windowHeight="15435" xr2:uid="{A2CED1EC-343A-4CFC-976C-17F1726B3D68}"/>
   </bookViews>
   <sheets>
     <sheet name="资产分类" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="157">
   <si>
     <t>无息外借款</t>
   </si>
@@ -107,9 +107,6 @@
     <t>南方原油</t>
   </si>
   <si>
-    <t>华宝标普石油指数</t>
-  </si>
-  <si>
     <t>白银</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -427,9 +424,6 @@
     <t>50ETF</t>
   </si>
   <si>
-    <t>分类 ID</t>
-  </si>
-  <si>
     <t>三级分类</t>
   </si>
   <si>
@@ -512,6 +506,62 @@
   </si>
   <si>
     <t>偏债</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>分类</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>ID</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>场内</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>场外</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>市场</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>华宝油气</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -522,7 +572,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="000000"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -551,6 +601,40 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -574,7 +658,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -584,6 +668,16 @@
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -900,9 +994,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7002D332-7AD6-42B5-A99D-39647A47F5B6}">
-  <dimension ref="A1:F87"/>
+  <dimension ref="A1:G87"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="F65" sqref="F65"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -912,29 +1008,32 @@
     <col min="6" max="6" width="6.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+        <v>127</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B2" s="3">
         <v>510050</v>
@@ -943,18 +1042,21 @@
         <v>13</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F2" s="1">
         <v>111</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G2" s="6" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B3" s="3">
         <v>1051</v>
@@ -963,18 +1065,21 @@
         <v>13</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F3" s="1">
         <v>111</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G3" s="6" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B4" s="3">
         <v>501050</v>
@@ -983,18 +1088,21 @@
         <v>13</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F4" s="1">
         <v>112</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G4" s="6" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B5" s="3">
         <v>510300</v>
@@ -1003,18 +1111,21 @@
         <v>13</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F5" s="1">
         <v>113</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G5" s="6" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B6" s="3">
         <v>100038</v>
@@ -1023,18 +1134,21 @@
         <v>13</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F6" s="1">
         <v>113</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G6" s="6" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B7" s="3">
         <v>51</v>
@@ -1043,18 +1157,21 @@
         <v>13</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F7" s="1">
         <v>113</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G7" s="6" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B8" s="3">
         <v>519671</v>
@@ -1063,18 +1180,21 @@
         <v>13</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F8" s="1">
         <v>114</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G8" s="6" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B9" s="3">
         <v>310398</v>
@@ -1083,18 +1203,21 @@
         <v>13</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F9" s="1">
         <v>114</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G9" s="6" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B10" s="3">
         <v>530015</v>
@@ -1103,18 +1226,21 @@
         <v>13</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F10" s="1">
         <v>115</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G10" s="6" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B11" s="3">
         <v>70023</v>
@@ -1123,18 +1249,21 @@
         <v>13</v>
       </c>
       <c r="D11" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>111</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>112</v>
       </c>
       <c r="F11" s="1">
         <v>116</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G11" s="6" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B12" s="3">
         <v>159902</v>
@@ -1143,18 +1272,21 @@
         <v>13</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F12" s="1">
         <v>117</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G12" s="6" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B13" s="3">
         <v>510500</v>
@@ -1163,18 +1295,21 @@
         <v>13</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F13" s="1">
         <v>121</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G13" s="6" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B14" s="3">
         <v>478</v>
@@ -1183,18 +1318,21 @@
         <v>13</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F14" s="1">
         <v>121</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G14" s="6" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B15" s="3">
         <v>1052</v>
@@ -1203,18 +1341,21 @@
         <v>13</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F15" s="1">
         <v>121</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G15" s="6" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B16" s="3">
         <v>161017</v>
@@ -1223,18 +1364,21 @@
         <v>13</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F16" s="1">
         <v>121</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G16" s="6" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B17" s="3">
         <v>2903</v>
@@ -1243,18 +1387,21 @@
         <v>13</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F17" s="1">
         <v>121</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G17" s="6" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B18" s="3">
         <v>162711</v>
@@ -1263,18 +1410,21 @@
         <v>13</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F18" s="1">
         <v>121</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G18" s="6" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B19" s="3">
         <v>3318</v>
@@ -1283,18 +1433,21 @@
         <v>13</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F19" s="1">
         <v>122</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G19" s="6" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B20" s="3">
         <v>512100</v>
@@ -1303,18 +1456,21 @@
         <v>13</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F20" s="1">
         <v>123</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G20" s="6" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B21" s="3">
         <v>3647</v>
@@ -1323,18 +1479,21 @@
         <v>13</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F21" s="1">
         <v>123</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G21" s="6" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B22" s="3">
         <v>162413</v>
@@ -1343,18 +1502,21 @@
         <v>13</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F22" s="1">
         <v>123</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G22" s="6" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B23" s="3">
         <v>159915</v>
@@ -1363,18 +1525,21 @@
         <v>13</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F23" s="1">
         <v>124</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G23" s="6" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B24" s="3">
         <v>110026</v>
@@ -1383,18 +1548,21 @@
         <v>13</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F24" s="1">
         <v>124</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G24" s="6" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B25" s="3">
         <v>3765</v>
@@ -1403,18 +1571,21 @@
         <v>13</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F25" s="1">
         <v>124</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G25" s="6" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B26" s="3">
         <v>90010</v>
@@ -1423,18 +1594,21 @@
         <v>13</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F26" s="1">
         <v>131</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G26" s="6" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B27" s="3">
         <v>100032</v>
@@ -1443,18 +1617,21 @@
         <v>13</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F27" s="1">
         <v>131</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G27" s="6" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B28" s="3">
         <v>501029</v>
@@ -1463,18 +1640,21 @@
         <v>13</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F28" s="1">
         <v>132</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G28" s="6" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B29" s="3">
         <v>968</v>
@@ -1483,18 +1663,21 @@
         <v>13</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F29" s="1">
         <v>141</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G29" s="6" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B30" s="3">
         <v>1550</v>
@@ -1503,18 +1686,21 @@
         <v>13</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F30" s="1">
         <v>142</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G30" s="6" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B31" s="3">
         <v>159938</v>
@@ -1523,18 +1709,21 @@
         <v>13</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F31" s="1">
         <v>142</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G31" s="6" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B32" s="3">
         <v>1180</v>
@@ -1543,18 +1732,21 @@
         <v>13</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F32" s="1">
         <v>142</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G32" s="6" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B33" s="3">
         <v>512580</v>
@@ -1563,18 +1755,21 @@
         <v>13</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F33" s="1">
         <v>143</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G33" s="6" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B34" s="3">
         <v>1064</v>
@@ -1583,18 +1778,21 @@
         <v>13</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F34" s="1">
         <v>143</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G34" s="6" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B35" s="3">
         <v>512980</v>
@@ -1603,18 +1801,21 @@
         <v>13</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F35" s="1">
         <v>144</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G35" s="6" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B36" s="3">
         <v>4752</v>
@@ -1623,18 +1824,21 @@
         <v>13</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F36" s="1">
         <v>144</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G36" s="6" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B37" s="3">
         <v>512880</v>
@@ -1643,18 +1847,21 @@
         <v>13</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F37" s="1">
         <v>145</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G37" s="6" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B38" s="3">
         <v>502010</v>
@@ -1663,18 +1870,21 @@
         <v>13</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F38" s="1">
         <v>145</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G38" s="6" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B39" s="3">
         <v>1469</v>
@@ -1683,18 +1893,21 @@
         <v>13</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F39" s="1">
         <v>146</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G39" s="6" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B40" s="3">
         <v>110022</v>
@@ -1703,18 +1916,21 @@
         <v>13</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F40" s="1">
         <v>147</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G40" s="6" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B41" s="3">
         <v>161725</v>
@@ -1723,16 +1939,19 @@
         <v>13</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F41" s="1">
         <v>148</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G41" s="6" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>20</v>
       </c>
@@ -1751,8 +1970,9 @@
       <c r="F42" s="1">
         <v>151</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G42" s="7"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>19</v>
       </c>
@@ -1771,8 +1991,9 @@
       <c r="F43" s="1">
         <v>151</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G43" s="7"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>18</v>
       </c>
@@ -1791,8 +2012,9 @@
       <c r="F44" s="1">
         <v>151</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G44" s="7"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>17</v>
       </c>
@@ -1811,8 +2033,9 @@
       <c r="F45" s="1">
         <v>151</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G45" s="7"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>16</v>
       </c>
@@ -1831,8 +2054,9 @@
       <c r="F46" s="1">
         <v>151</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G46" s="7"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>15</v>
       </c>
@@ -1851,8 +2075,9 @@
       <c r="F47" s="1">
         <v>151</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G47" s="7"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>14</v>
       </c>
@@ -1871,430 +2096,494 @@
       <c r="F48" s="1">
         <v>151</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G48" s="7"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B49" s="3">
         <v>71</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F49" s="1">
         <v>211</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G49" s="6" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B50" s="3">
         <v>159920</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F50" s="1">
         <v>211</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G50" s="6" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B51" s="3">
         <v>510900</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F51" s="1">
         <v>212</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G51" s="6" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B52" s="3">
         <v>501021</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F52" s="1">
         <v>213</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G52" s="6" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B53" s="3">
         <v>164906</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F53" s="1">
         <v>221</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G53" s="6" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B54" s="3">
         <v>179</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F54" s="1">
         <v>314</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G54" s="6" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B55" s="3">
         <v>614</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F55" s="1">
         <v>321</v>
       </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G55" s="6" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B56" s="3">
         <v>3376</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F56" s="1">
         <v>411</v>
       </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G56" s="6" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B57" s="3">
         <v>204001</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F57" s="1">
         <v>411</v>
       </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G57" s="6" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B58" s="3">
         <v>204007</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F58" s="1">
         <v>411</v>
       </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G58" s="6" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B59" s="3">
         <v>131810</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F59" s="1">
         <v>411</v>
       </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G59" s="6" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B60" s="3">
         <v>131800</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F60" s="1">
         <v>411</v>
       </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G60" s="6" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B61" s="3">
         <v>511010</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F61" s="1">
         <v>411</v>
       </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G61" s="6" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B62" s="3">
         <v>6793</v>
       </c>
       <c r="C62" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D62" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E62" t="s">
-        <v>34</v>
-      </c>
-      <c r="F62">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+      <c r="F62" s="1">
+        <v>412</v>
+      </c>
+      <c r="G62" s="6" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B63" s="3">
         <v>519718</v>
       </c>
       <c r="C63" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D63" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E63" t="s">
-        <v>34</v>
-      </c>
-      <c r="F63">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+      <c r="F63" s="1">
+        <v>412</v>
+      </c>
+      <c r="G63" s="6" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B64" s="3">
         <v>519723</v>
       </c>
       <c r="C64" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D64" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E64" t="s">
-        <v>34</v>
-      </c>
-      <c r="F64">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+      <c r="F64" s="1">
+        <v>412</v>
+      </c>
+      <c r="G64" s="6" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B65">
         <v>519776</v>
       </c>
       <c r="C65" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D65" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E65" t="s">
-        <v>34</v>
-      </c>
-      <c r="F65">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+      <c r="F65" s="1">
+        <v>412</v>
+      </c>
+      <c r="G65" s="6" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B66" s="3">
         <v>340001</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F66" s="1">
         <v>412</v>
       </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G66" s="6" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B67" s="3">
         <v>110027</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F67" s="1">
         <v>412</v>
       </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G67" s="6" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B68" s="3">
         <v>519977</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F68" s="1">
         <v>412</v>
       </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G68" s="6" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B69" s="3">
         <v>1061</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F69" s="1">
         <v>421</v>
       </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G69" s="6" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B70" s="3">
         <v>518880</v>
@@ -2306,15 +2595,18 @@
         <v>22</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F70" s="1">
         <v>511</v>
       </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G70" s="6" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B71" s="3">
         <v>216</v>
@@ -2326,18 +2618,21 @@
         <v>22</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F71" s="1">
         <v>511</v>
       </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G71" s="6" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B72" s="3">
-        <v>999980</v>
+        <v>999979</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>22</v>
@@ -2346,15 +2641,16 @@
         <v>22</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F72" s="1">
         <v>512</v>
       </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G72" s="7"/>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
-        <v>24</v>
+        <v>156</v>
       </c>
       <c r="B73" s="3">
         <v>162411</v>
@@ -2371,8 +2667,11 @@
       <c r="F73" s="1">
         <v>513</v>
       </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G73" s="6" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>23</v>
       </c>
@@ -2391,68 +2690,80 @@
       <c r="F74" s="1">
         <v>513</v>
       </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G74" s="6" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B75" s="3">
         <v>519700</v>
       </c>
       <c r="C75" t="s">
+        <v>148</v>
+      </c>
+      <c r="D75" t="s">
+        <v>149</v>
+      </c>
+      <c r="E75" t="s">
         <v>150</v>
-      </c>
-      <c r="D75" t="s">
-        <v>151</v>
-      </c>
-      <c r="E75" t="s">
-        <v>152</v>
       </c>
       <c r="F75">
         <v>611</v>
       </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G75" s="6" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B76" s="3">
         <v>519752</v>
       </c>
       <c r="C76" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D76" t="s">
+        <v>149</v>
+      </c>
+      <c r="E76" t="s">
         <v>151</v>
-      </c>
-      <c r="E76" t="s">
-        <v>153</v>
       </c>
       <c r="F76">
         <v>612</v>
       </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G76" s="6" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B77" s="3">
         <v>519755</v>
       </c>
       <c r="C77" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D77" t="s">
+        <v>149</v>
+      </c>
+      <c r="E77" t="s">
         <v>151</v>
-      </c>
-      <c r="E77" t="s">
-        <v>153</v>
       </c>
       <c r="F77">
         <v>612</v>
       </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G77" s="6" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>0</v>
       </c>
@@ -2460,10 +2771,10 @@
         <v>999988</v>
       </c>
       <c r="C78" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D78" s="1" t="s">
         <v>138</v>
-      </c>
-      <c r="D78" s="1" t="s">
-        <v>140</v>
       </c>
       <c r="E78" s="1" t="s">
         <v>0</v>
@@ -2471,8 +2782,9 @@
       <c r="F78" s="1">
         <v>988</v>
       </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G78" s="7"/>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>1</v>
       </c>
@@ -2480,19 +2792,20 @@
         <v>999989</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D79" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E79" s="1" t="s">
         <v>139</v>
-      </c>
-      <c r="E79" s="1" t="s">
-        <v>141</v>
       </c>
       <c r="F79" s="1">
         <v>989</v>
       </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G79" s="7"/>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>2</v>
       </c>
@@ -2503,16 +2816,17 @@
         <v>5</v>
       </c>
       <c r="D80" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E80" s="1" t="s">
         <v>134</v>
-      </c>
-      <c r="E80" s="1" t="s">
-        <v>136</v>
       </c>
       <c r="F80" s="1">
         <v>997</v>
       </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G80" s="7"/>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>3</v>
       </c>
@@ -2523,16 +2837,17 @@
         <v>5</v>
       </c>
       <c r="D81" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="E81" s="1" t="s">
         <v>135</v>
-      </c>
-      <c r="E81" s="1" t="s">
-        <v>137</v>
       </c>
       <c r="F81" s="1">
         <v>998</v>
       </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G81" s="7"/>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>11</v>
       </c>
@@ -2543,7 +2858,7 @@
         <v>5</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E82" s="1" t="s">
         <v>4</v>
@@ -2551,8 +2866,9 @@
       <c r="F82" s="1">
         <v>999</v>
       </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G82" s="7"/>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
         <v>10</v>
       </c>
@@ -2563,7 +2879,7 @@
         <v>5</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E83" s="1" t="s">
         <v>4</v>
@@ -2571,8 +2887,9 @@
       <c r="F83" s="1">
         <v>999</v>
       </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G83" s="7"/>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
         <v>9</v>
       </c>
@@ -2583,7 +2900,7 @@
         <v>5</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E84" s="1" t="s">
         <v>4</v>
@@ -2591,8 +2908,9 @@
       <c r="F84" s="1">
         <v>999</v>
       </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G84" s="7"/>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
         <v>8</v>
       </c>
@@ -2603,7 +2921,7 @@
         <v>5</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E85" s="1" t="s">
         <v>4</v>
@@ -2611,8 +2929,9 @@
       <c r="F85" s="1">
         <v>999</v>
       </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G85" s="7"/>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>7</v>
       </c>
@@ -2623,7 +2942,7 @@
         <v>5</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E86" s="1" t="s">
         <v>4</v>
@@ -2631,8 +2950,9 @@
       <c r="F86" s="1">
         <v>999</v>
       </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G86" s="7"/>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
         <v>6</v>
       </c>
@@ -2643,7 +2963,7 @@
         <v>5</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E87" s="1" t="s">
         <v>4</v>
@@ -2651,6 +2971,7 @@
       <c r="F87" s="1">
         <v>999</v>
       </c>
+      <c r="G87" s="7"/>
     </row>
   </sheetData>
   <sortState ref="A2:F87">

--- a/scripts/src/config/资产配置分类表.xlsx
+++ b/scripts/src/config/资产配置分类表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\finance-data\Scripts\src\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3036DEB0-7ED1-4124-B4C3-593533E82089}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15AA8828-7977-4FEC-A93B-96FE4D85BB18}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8475" yWindow="2340" windowWidth="28800" windowHeight="15435" xr2:uid="{A2CED1EC-343A-4CFC-976C-17F1726B3D68}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{A2CED1EC-343A-4CFC-976C-17F1726B3D68}"/>
   </bookViews>
   <sheets>
     <sheet name="资产分类" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="157">
   <si>
     <t>无息外借款</t>
   </si>
@@ -996,8 +996,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7002D332-7AD6-42B5-A99D-39647A47F5B6}">
   <dimension ref="A1:G87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="F65" sqref="F65"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G57" sqref="G57:G60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2301,9 +2301,7 @@
       <c r="F57" s="1">
         <v>411</v>
       </c>
-      <c r="G57" s="6" t="s">
-        <v>153</v>
-      </c>
+      <c r="G57" s="6"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
@@ -2324,9 +2322,7 @@
       <c r="F58" s="1">
         <v>411</v>
       </c>
-      <c r="G58" s="6" t="s">
-        <v>153</v>
-      </c>
+      <c r="G58" s="6"/>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
@@ -2347,9 +2343,7 @@
       <c r="F59" s="1">
         <v>411</v>
       </c>
-      <c r="G59" s="6" t="s">
-        <v>153</v>
-      </c>
+      <c r="G59" s="6"/>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
@@ -2370,9 +2364,7 @@
       <c r="F60" s="1">
         <v>411</v>
       </c>
-      <c r="G60" s="6" t="s">
-        <v>153</v>
-      </c>
+      <c r="G60" s="6"/>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">

--- a/scripts/src/config/资产配置分类表.xlsx
+++ b/scripts/src/config/资产配置分类表.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\finance-data\Scripts\src\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15AA8828-7977-4FEC-A93B-96FE4D85BB18}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5872B26-CA88-4F4A-B2B8-C406B72D7491}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{A2CED1EC-343A-4CFC-976C-17F1726B3D68}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="158">
   <si>
     <t>无息外借款</t>
   </si>
@@ -229,10 +229,6 @@
   </si>
   <si>
     <t>华夏恒生ETF联接A</t>
-  </si>
-  <si>
-    <t>白酒</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>行业股</t>
@@ -562,6 +558,14 @@
   </si>
   <si>
     <t>华宝油气</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天弘中证银行指数A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中证银行</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -994,10 +998,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7002D332-7AD6-42B5-A99D-39647A47F5B6}">
-  <dimension ref="A1:G87"/>
+  <dimension ref="A1:G88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G57" sqref="G57:G60"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F42" sqref="F42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1010,30 +1014,30 @@
   <sheetData>
     <row r="1" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B2" s="3">
         <v>510050</v>
@@ -1042,21 +1046,21 @@
         <v>13</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F2" s="1">
         <v>111</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B3" s="3">
         <v>1051</v>
@@ -1065,21 +1069,21 @@
         <v>13</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F3" s="1">
         <v>111</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B4" s="3">
         <v>501050</v>
@@ -1088,21 +1092,21 @@
         <v>13</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F4" s="1">
         <v>112</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B5" s="3">
         <v>510300</v>
@@ -1111,21 +1115,21 @@
         <v>13</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F5" s="1">
         <v>113</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B6" s="3">
         <v>100038</v>
@@ -1134,21 +1138,21 @@
         <v>13</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F6" s="1">
         <v>113</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B7" s="3">
         <v>51</v>
@@ -1157,21 +1161,21 @@
         <v>13</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F7" s="1">
         <v>113</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B8" s="3">
         <v>519671</v>
@@ -1180,21 +1184,21 @@
         <v>13</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F8" s="1">
         <v>114</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B9" s="3">
         <v>310398</v>
@@ -1203,21 +1207,21 @@
         <v>13</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F9" s="1">
         <v>114</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B10" s="3">
         <v>530015</v>
@@ -1226,21 +1230,21 @@
         <v>13</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F10" s="1">
         <v>115</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B11" s="3">
         <v>70023</v>
@@ -1249,21 +1253,21 @@
         <v>13</v>
       </c>
       <c r="D11" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>110</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>111</v>
       </c>
       <c r="F11" s="1">
         <v>116</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B12" s="3">
         <v>159902</v>
@@ -1272,21 +1276,21 @@
         <v>13</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F12" s="1">
         <v>117</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B13" s="3">
         <v>510500</v>
@@ -1295,21 +1299,21 @@
         <v>13</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F13" s="1">
         <v>121</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B14" s="3">
         <v>478</v>
@@ -1318,21 +1322,21 @@
         <v>13</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F14" s="1">
         <v>121</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B15" s="3">
         <v>1052</v>
@@ -1341,21 +1345,21 @@
         <v>13</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F15" s="1">
         <v>121</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B16" s="3">
         <v>161017</v>
@@ -1364,21 +1368,21 @@
         <v>13</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F16" s="1">
         <v>121</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B17" s="3">
         <v>2903</v>
@@ -1387,21 +1391,21 @@
         <v>13</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F17" s="1">
         <v>121</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B18" s="3">
         <v>162711</v>
@@ -1410,21 +1414,21 @@
         <v>13</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F18" s="1">
         <v>121</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B19" s="3">
         <v>3318</v>
@@ -1433,21 +1437,21 @@
         <v>13</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F19" s="1">
         <v>122</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B20" s="3">
         <v>512100</v>
@@ -1456,21 +1460,21 @@
         <v>13</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F20" s="1">
         <v>123</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B21" s="3">
         <v>3647</v>
@@ -1479,21 +1483,21 @@
         <v>13</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F21" s="1">
         <v>123</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B22" s="3">
         <v>162413</v>
@@ -1502,21 +1506,21 @@
         <v>13</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F22" s="1">
         <v>123</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B23" s="3">
         <v>159915</v>
@@ -1525,21 +1529,21 @@
         <v>13</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F23" s="1">
         <v>124</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B24" s="3">
         <v>110026</v>
@@ -1548,21 +1552,21 @@
         <v>13</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F24" s="1">
         <v>124</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B25" s="3">
         <v>3765</v>
@@ -1571,21 +1575,21 @@
         <v>13</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F25" s="1">
         <v>124</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B26" s="3">
         <v>90010</v>
@@ -1594,21 +1598,21 @@
         <v>13</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F26" s="1">
         <v>131</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B27" s="3">
         <v>100032</v>
@@ -1617,21 +1621,21 @@
         <v>13</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F27" s="1">
         <v>131</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B28" s="3">
         <v>501029</v>
@@ -1640,21 +1644,21 @@
         <v>13</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F28" s="1">
         <v>132</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B29" s="3">
         <v>968</v>
@@ -1663,21 +1667,21 @@
         <v>13</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F29" s="1">
         <v>141</v>
       </c>
       <c r="G29" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B30" s="3">
         <v>1550</v>
@@ -1686,21 +1690,21 @@
         <v>13</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F30" s="1">
         <v>142</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B31" s="3">
         <v>159938</v>
@@ -1709,21 +1713,21 @@
         <v>13</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F31" s="1">
         <v>142</v>
       </c>
       <c r="G31" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B32" s="3">
         <v>1180</v>
@@ -1732,21 +1736,21 @@
         <v>13</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F32" s="1">
         <v>142</v>
       </c>
       <c r="G32" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B33" s="3">
         <v>512580</v>
@@ -1755,21 +1759,21 @@
         <v>13</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F33" s="1">
         <v>143</v>
       </c>
       <c r="G33" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B34" s="3">
         <v>1064</v>
@@ -1778,21 +1782,21 @@
         <v>13</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F34" s="1">
         <v>143</v>
       </c>
       <c r="G34" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B35" s="3">
         <v>512980</v>
@@ -1801,21 +1805,21 @@
         <v>13</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F35" s="1">
         <v>144</v>
       </c>
       <c r="G35" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B36" s="3">
         <v>4752</v>
@@ -1824,21 +1828,21 @@
         <v>13</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F36" s="1">
         <v>144</v>
       </c>
       <c r="G36" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B37" s="3">
         <v>512880</v>
@@ -1847,21 +1851,21 @@
         <v>13</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F37" s="1">
         <v>145</v>
       </c>
       <c r="G37" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B38" s="3">
         <v>502010</v>
@@ -1870,114 +1874,116 @@
         <v>13</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F38" s="1">
         <v>145</v>
       </c>
       <c r="G38" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>70</v>
+        <v>156</v>
       </c>
       <c r="B39" s="3">
-        <v>1469</v>
+        <v>1594</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>69</v>
+        <v>157</v>
       </c>
       <c r="F39" s="1">
         <v>146</v>
       </c>
       <c r="G39" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B40" s="3">
+        <v>1469</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E40" s="1" t="s">
         <v>68</v>
-      </c>
-      <c r="B40" s="3">
-        <v>110022</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>67</v>
       </c>
       <c r="F40" s="1">
         <v>147</v>
       </c>
       <c r="G40" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B41" s="3">
+        <v>110022</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E41" s="1" t="s">
         <v>66</v>
-      </c>
-      <c r="B41" s="3">
-        <v>161725</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>64</v>
       </c>
       <c r="F41" s="1">
         <v>148</v>
       </c>
       <c r="G41" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="B42" s="3">
-        <v>600861</v>
+        <v>161725</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>12</v>
+        <v>64</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>12</v>
+        <v>66</v>
       </c>
       <c r="F42" s="1">
-        <v>151</v>
-      </c>
-      <c r="G42" s="7"/>
+        <v>148</v>
+      </c>
+      <c r="G42" s="6" t="s">
+        <v>153</v>
+      </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B43" s="3">
-        <v>836</v>
+        <v>600861</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>13</v>
@@ -1995,10 +2001,10 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B44" s="3">
-        <v>600879</v>
+        <v>836</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>13</v>
@@ -2016,10 +2022,10 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B45" s="3">
-        <v>17</v>
+        <v>600879</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>13</v>
@@ -2037,10 +2043,10 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B46" s="3">
-        <v>601939</v>
+        <v>17</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>13</v>
@@ -2058,10 +2064,10 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B47" s="3">
-        <v>428</v>
+        <v>601939</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>13</v>
@@ -2079,10 +2085,10 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B48" s="3">
-        <v>600857</v>
+        <v>428</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>13</v>
@@ -2100,33 +2106,31 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>63</v>
+        <v>14</v>
       </c>
       <c r="B49" s="3">
-        <v>71</v>
+        <v>600857</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>57</v>
+        <v>12</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="F49" s="1">
-        <v>211</v>
-      </c>
-      <c r="G49" s="6" t="s">
-        <v>154</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="G49" s="7"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B50" s="3">
-        <v>159920</v>
+        <v>71</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>54</v>
@@ -2146,10 +2150,10 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B51" s="3">
-        <v>510900</v>
+        <v>159920</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>54</v>
@@ -2158,21 +2162,21 @@
         <v>57</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F51" s="1">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G51" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B52" s="3">
-        <v>501021</v>
+        <v>510900</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>54</v>
@@ -2181,113 +2185,113 @@
         <v>57</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="F52" s="1">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G52" s="6" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B53" s="3">
-        <v>164906</v>
+        <v>501021</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="F53" s="1">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="G53" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B54" s="3">
-        <v>179</v>
+        <v>164906</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="F54" s="1">
-        <v>314</v>
+        <v>221</v>
       </c>
       <c r="G54" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B55" s="3">
-        <v>614</v>
+        <v>179</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="F55" s="1">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="G55" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B56" s="3">
-        <v>3376</v>
+        <v>614</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="F56" s="1">
-        <v>411</v>
+        <v>321</v>
       </c>
       <c r="G56" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B57" s="3">
-        <v>204001</v>
+        <v>3376</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>31</v>
@@ -2301,14 +2305,16 @@
       <c r="F57" s="1">
         <v>411</v>
       </c>
-      <c r="G57" s="6"/>
+      <c r="G57" s="6" t="s">
+        <v>153</v>
+      </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B58" s="3">
-        <v>204007</v>
+        <v>204001</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>31</v>
@@ -2326,10 +2332,10 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B59" s="3">
-        <v>131810</v>
+        <v>204007</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>31</v>
@@ -2347,10 +2353,10 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B60" s="3">
-        <v>131800</v>
+        <v>131810</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>31</v>
@@ -2368,10 +2374,10 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B61" s="3">
-        <v>511010</v>
+        <v>131800</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>31</v>
@@ -2385,39 +2391,37 @@
       <c r="F61" s="1">
         <v>411</v>
       </c>
-      <c r="G61" s="6" t="s">
-        <v>153</v>
-      </c>
+      <c r="G61" s="6"/>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
-        <v>141</v>
+      <c r="A62" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="B62" s="3">
-        <v>6793</v>
-      </c>
-      <c r="C62" t="s">
+        <v>511010</v>
+      </c>
+      <c r="C62" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D62" t="s">
+      <c r="D62" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E62" t="s">
-        <v>33</v>
+      <c r="E62" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="F62" s="1">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="G62" s="6" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B63" s="3">
-        <v>519718</v>
+        <v>6793</v>
       </c>
       <c r="C63" t="s">
         <v>31</v>
@@ -2432,15 +2436,15 @@
         <v>412</v>
       </c>
       <c r="G63" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B64" s="3">
-        <v>519723</v>
+        <v>519718</v>
       </c>
       <c r="C64" t="s">
         <v>31</v>
@@ -2455,15 +2459,15 @@
         <v>412</v>
       </c>
       <c r="G64" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>147</v>
-      </c>
-      <c r="B65">
-        <v>519776</v>
+        <v>143</v>
+      </c>
+      <c r="B65" s="3">
+        <v>519723</v>
       </c>
       <c r="C65" t="s">
         <v>31</v>
@@ -2478,38 +2482,38 @@
         <v>412</v>
       </c>
       <c r="G65" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A66" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B66" s="3">
-        <v>340001</v>
-      </c>
-      <c r="C66" s="1" t="s">
+      <c r="A66" t="s">
+        <v>146</v>
+      </c>
+      <c r="B66">
+        <v>519776</v>
+      </c>
+      <c r="C66" t="s">
         <v>31</v>
       </c>
-      <c r="D66" s="1" t="s">
+      <c r="D66" t="s">
         <v>34</v>
       </c>
-      <c r="E66" s="1" t="s">
+      <c r="E66" t="s">
         <v>33</v>
       </c>
       <c r="F66" s="1">
         <v>412</v>
       </c>
       <c r="G66" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B67" s="3">
-        <v>110027</v>
+        <v>340001</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>31</v>
@@ -2524,15 +2528,15 @@
         <v>412</v>
       </c>
       <c r="G67" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B68" s="3">
-        <v>519977</v>
+        <v>110027</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>31</v>
@@ -2547,50 +2551,50 @@
         <v>412</v>
       </c>
       <c r="G68" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B69" s="3">
-        <v>1061</v>
+        <v>519977</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>31</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F69" s="1">
-        <v>421</v>
+        <v>412</v>
       </c>
       <c r="G69" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B70" s="3">
-        <v>518880</v>
+        <v>1061</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F70" s="1">
-        <v>511</v>
+        <v>421</v>
       </c>
       <c r="G70" s="6" t="s">
         <v>153</v>
@@ -2598,10 +2602,10 @@
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B71" s="3">
-        <v>216</v>
+        <v>518880</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>22</v>
@@ -2616,15 +2620,15 @@
         <v>511</v>
       </c>
       <c r="G71" s="6" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B72" s="3">
-        <v>999979</v>
+        <v>216</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>22</v>
@@ -2633,19 +2637,21 @@
         <v>22</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F72" s="1">
-        <v>512</v>
-      </c>
-      <c r="G72" s="7"/>
+        <v>511</v>
+      </c>
+      <c r="G72" s="6" t="s">
+        <v>153</v>
+      </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
-        <v>156</v>
+        <v>25</v>
       </c>
       <c r="B73" s="3">
-        <v>162411</v>
+        <v>999979</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>22</v>
@@ -2654,21 +2660,19 @@
         <v>22</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F73" s="1">
-        <v>513</v>
-      </c>
-      <c r="G73" s="6" t="s">
-        <v>153</v>
-      </c>
+        <v>512</v>
+      </c>
+      <c r="G73" s="7"/>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
-        <v>23</v>
+        <v>155</v>
       </c>
       <c r="B74" s="3">
-        <v>501018</v>
+        <v>162411</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>22</v>
@@ -2683,195 +2687,197 @@
         <v>513</v>
       </c>
       <c r="G74" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A75" t="s">
-        <v>142</v>
+      <c r="A75" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="B75" s="3">
-        <v>519700</v>
-      </c>
-      <c r="C75" t="s">
-        <v>148</v>
-      </c>
-      <c r="D75" t="s">
-        <v>149</v>
-      </c>
-      <c r="E75" t="s">
-        <v>150</v>
-      </c>
-      <c r="F75">
-        <v>611</v>
+        <v>501018</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F75" s="1">
+        <v>513</v>
       </c>
       <c r="G75" s="6" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B76" s="3">
-        <v>519752</v>
+        <v>519700</v>
       </c>
       <c r="C76" t="s">
+        <v>147</v>
+      </c>
+      <c r="D76" t="s">
         <v>148</v>
       </c>
-      <c r="D76" t="s">
+      <c r="E76" t="s">
         <v>149</v>
       </c>
-      <c r="E76" t="s">
-        <v>151</v>
-      </c>
       <c r="F76">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="G76" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B77" s="3">
-        <v>519755</v>
+        <v>519752</v>
       </c>
       <c r="C77" t="s">
+        <v>147</v>
+      </c>
+      <c r="D77" t="s">
         <v>148</v>
       </c>
-      <c r="D77" t="s">
-        <v>149</v>
-      </c>
       <c r="E77" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F77">
         <v>612</v>
       </c>
       <c r="G77" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A78" s="1" t="s">
-        <v>0</v>
+      <c r="A78" t="s">
+        <v>145</v>
       </c>
       <c r="B78" s="3">
-        <v>999988</v>
-      </c>
-      <c r="C78" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="D78" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="E78" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F78" s="1">
-        <v>988</v>
-      </c>
-      <c r="G78" s="7"/>
+        <v>519755</v>
+      </c>
+      <c r="C78" t="s">
+        <v>147</v>
+      </c>
+      <c r="D78" t="s">
+        <v>148</v>
+      </c>
+      <c r="E78" t="s">
+        <v>150</v>
+      </c>
+      <c r="F78">
+        <v>612</v>
+      </c>
+      <c r="G78" s="6" t="s">
+        <v>153</v>
+      </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B79" s="3">
-        <v>999989</v>
+        <v>999988</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D79" s="1" t="s">
         <v>137</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>139</v>
+        <v>0</v>
       </c>
       <c r="F79" s="1">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="G79" s="7"/>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B80" s="3">
-        <v>999997</v>
+        <v>999989</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>5</v>
+        <v>135</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="F80" s="1">
-        <v>997</v>
+        <v>989</v>
       </c>
       <c r="G80" s="7"/>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B81" s="3">
-        <v>999998</v>
+        <v>999997</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D81" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E81" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="E81" s="1" t="s">
-        <v>135</v>
-      </c>
       <c r="F81" s="1">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="G81" s="7"/>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="B82" s="3">
-        <v>2086</v>
+        <v>999998</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>4</v>
+        <v>134</v>
       </c>
       <c r="F82" s="1">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="G82" s="7"/>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B83" s="3">
-        <v>999999</v>
+        <v>2086</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E83" s="1" t="s">
         <v>4</v>
@@ -2883,16 +2889,16 @@
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B84" s="3">
-        <v>511990</v>
+        <v>999999</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E84" s="1" t="s">
         <v>4</v>
@@ -2904,16 +2910,16 @@
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B85" s="3">
-        <v>940018</v>
+        <v>511990</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E85" s="1" t="s">
         <v>4</v>
@@ -2925,16 +2931,16 @@
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B86" s="3">
-        <v>511980</v>
+        <v>940018</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E86" s="1" t="s">
         <v>4</v>
@@ -2946,16 +2952,16 @@
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B87" s="3">
-        <v>511880</v>
+        <v>511980</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E87" s="1" t="s">
         <v>4</v>
@@ -2965,9 +2971,30 @@
       </c>
       <c r="G87" s="7"/>
     </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A88" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B88" s="3">
+        <v>511880</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F88" s="1">
+        <v>999</v>
+      </c>
+      <c r="G88" s="7"/>
+    </row>
   </sheetData>
-  <sortState ref="A2:F87">
-    <sortCondition ref="F49"/>
+  <sortState ref="A2:F88">
+    <sortCondition ref="F50"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/scripts/src/config/资产配置分类表.xlsx
+++ b/scripts/src/config/资产配置分类表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\finance-data\Scripts\src\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5872B26-CA88-4F4A-B2B8-C406B72D7491}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4895EA37-4919-4363-B830-26A641F82D14}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{A2CED1EC-343A-4CFC-976C-17F1726B3D68}"/>
+    <workbookView xWindow="4260" yWindow="3915" windowWidth="28800" windowHeight="15435" xr2:uid="{A2CED1EC-343A-4CFC-976C-17F1726B3D68}"/>
   </bookViews>
   <sheets>
     <sheet name="资产分类" sheetId="1" r:id="rId1"/>
@@ -491,9 +491,6 @@
     <t>交银裕盈纯债债券A</t>
   </si>
   <si>
-    <t>主动型</t>
-  </si>
-  <si>
     <t>股债混合</t>
   </si>
   <si>
@@ -566,6 +563,10 @@
   </si>
   <si>
     <t>中证银行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>混合型</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1000,8 +1001,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7002D332-7AD6-42B5-A99D-39647A47F5B6}">
   <dimension ref="A1:G88"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F42" sqref="F42"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="C59" sqref="C59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1029,10 +1030,10 @@
         <v>126</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -1055,7 +1056,7 @@
         <v>111</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -1078,7 +1079,7 @@
         <v>111</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -1101,7 +1102,7 @@
         <v>112</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -1124,7 +1125,7 @@
         <v>113</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -1147,7 +1148,7 @@
         <v>113</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -1170,7 +1171,7 @@
         <v>113</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -1193,7 +1194,7 @@
         <v>114</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -1216,7 +1217,7 @@
         <v>114</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -1239,7 +1240,7 @@
         <v>115</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -1262,7 +1263,7 @@
         <v>116</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
@@ -1285,7 +1286,7 @@
         <v>117</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
@@ -1308,7 +1309,7 @@
         <v>121</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
@@ -1331,7 +1332,7 @@
         <v>121</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
@@ -1354,7 +1355,7 @@
         <v>121</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
@@ -1377,7 +1378,7 @@
         <v>121</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
@@ -1400,7 +1401,7 @@
         <v>121</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
@@ -1423,7 +1424,7 @@
         <v>121</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
@@ -1446,7 +1447,7 @@
         <v>122</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
@@ -1469,7 +1470,7 @@
         <v>123</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
@@ -1492,7 +1493,7 @@
         <v>123</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
@@ -1515,7 +1516,7 @@
         <v>123</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
@@ -1538,7 +1539,7 @@
         <v>124</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
@@ -1561,7 +1562,7 @@
         <v>124</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
@@ -1584,7 +1585,7 @@
         <v>124</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
@@ -1607,7 +1608,7 @@
         <v>131</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
@@ -1630,7 +1631,7 @@
         <v>131</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
@@ -1653,7 +1654,7 @@
         <v>132</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
@@ -1676,7 +1677,7 @@
         <v>141</v>
       </c>
       <c r="G29" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
@@ -1699,7 +1700,7 @@
         <v>142</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
@@ -1722,7 +1723,7 @@
         <v>142</v>
       </c>
       <c r="G31" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
@@ -1745,7 +1746,7 @@
         <v>142</v>
       </c>
       <c r="G32" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
@@ -1768,7 +1769,7 @@
         <v>143</v>
       </c>
       <c r="G33" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
@@ -1791,7 +1792,7 @@
         <v>143</v>
       </c>
       <c r="G34" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
@@ -1814,7 +1815,7 @@
         <v>144</v>
       </c>
       <c r="G35" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
@@ -1837,7 +1838,7 @@
         <v>144</v>
       </c>
       <c r="G36" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
@@ -1860,7 +1861,7 @@
         <v>145</v>
       </c>
       <c r="G37" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
@@ -1883,12 +1884,12 @@
         <v>145</v>
       </c>
       <c r="G38" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B39" s="3">
         <v>1594</v>
@@ -1900,13 +1901,13 @@
         <v>64</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F39" s="1">
         <v>146</v>
       </c>
       <c r="G39" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
@@ -1929,7 +1930,7 @@
         <v>147</v>
       </c>
       <c r="G40" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
@@ -1952,7 +1953,7 @@
         <v>148</v>
       </c>
       <c r="G41" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
@@ -1975,7 +1976,7 @@
         <v>148</v>
       </c>
       <c r="G42" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
@@ -2145,7 +2146,7 @@
         <v>211</v>
       </c>
       <c r="G50" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
@@ -2168,7 +2169,7 @@
         <v>211</v>
       </c>
       <c r="G51" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
@@ -2191,7 +2192,7 @@
         <v>212</v>
       </c>
       <c r="G52" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
@@ -2214,7 +2215,7 @@
         <v>213</v>
       </c>
       <c r="G53" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.2">
@@ -2237,7 +2238,7 @@
         <v>221</v>
       </c>
       <c r="G54" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.2">
@@ -2260,7 +2261,7 @@
         <v>314</v>
       </c>
       <c r="G55" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.2">
@@ -2283,80 +2284,84 @@
         <v>321</v>
       </c>
       <c r="G56" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A57" s="1" t="s">
-        <v>44</v>
+      <c r="A57" t="s">
+        <v>141</v>
       </c>
       <c r="B57" s="3">
-        <v>3376</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E57" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F57" s="1">
+        <v>519700</v>
+      </c>
+      <c r="C57" t="s">
+        <v>157</v>
+      </c>
+      <c r="D57" t="s">
+        <v>147</v>
+      </c>
+      <c r="E57" t="s">
+        <v>148</v>
+      </c>
+      <c r="F57">
         <v>411</v>
       </c>
       <c r="G57" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A58" s="1" t="s">
-        <v>43</v>
+      <c r="A58" t="s">
+        <v>144</v>
       </c>
       <c r="B58" s="3">
-        <v>204001</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E58" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F58" s="1">
-        <v>411</v>
-      </c>
-      <c r="G58" s="6"/>
+        <v>519752</v>
+      </c>
+      <c r="C58" t="s">
+        <v>157</v>
+      </c>
+      <c r="D58" t="s">
+        <v>147</v>
+      </c>
+      <c r="E58" t="s">
+        <v>149</v>
+      </c>
+      <c r="F58">
+        <v>412</v>
+      </c>
+      <c r="G58" s="6" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A59" s="1" t="s">
-        <v>42</v>
+      <c r="A59" t="s">
+        <v>145</v>
       </c>
       <c r="B59" s="3">
-        <v>204007</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E59" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F59" s="1">
-        <v>411</v>
-      </c>
-      <c r="G59" s="6"/>
+        <v>519755</v>
+      </c>
+      <c r="C59" t="s">
+        <v>157</v>
+      </c>
+      <c r="D59" t="s">
+        <v>147</v>
+      </c>
+      <c r="E59" t="s">
+        <v>149</v>
+      </c>
+      <c r="F59">
+        <v>412</v>
+      </c>
+      <c r="G59" s="6" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B60" s="3">
-        <v>131810</v>
+        <v>3376</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>31</v>
@@ -2368,16 +2373,18 @@
         <v>38</v>
       </c>
       <c r="F60" s="1">
-        <v>411</v>
-      </c>
-      <c r="G60" s="6"/>
+        <v>511</v>
+      </c>
+      <c r="G60" s="6" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B61" s="3">
-        <v>131800</v>
+        <v>204001</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>31</v>
@@ -2389,16 +2396,16 @@
         <v>38</v>
       </c>
       <c r="F61" s="1">
-        <v>411</v>
+        <v>511</v>
       </c>
       <c r="G61" s="6"/>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B62" s="3">
-        <v>511010</v>
+        <v>204007</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>31</v>
@@ -2410,87 +2417,81 @@
         <v>38</v>
       </c>
       <c r="F62" s="1">
-        <v>411</v>
-      </c>
-      <c r="G62" s="6" t="s">
-        <v>152</v>
-      </c>
+        <v>511</v>
+      </c>
+      <c r="G62" s="6"/>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
-        <v>140</v>
+      <c r="A63" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="B63" s="3">
-        <v>6793</v>
-      </c>
-      <c r="C63" t="s">
+        <v>131810</v>
+      </c>
+      <c r="C63" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D63" t="s">
+      <c r="D63" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E63" t="s">
-        <v>33</v>
+      <c r="E63" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="F63" s="1">
-        <v>412</v>
-      </c>
-      <c r="G63" s="6" t="s">
-        <v>153</v>
-      </c>
+        <v>511</v>
+      </c>
+      <c r="G63" s="6"/>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A64" t="s">
-        <v>142</v>
+      <c r="A64" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="B64" s="3">
-        <v>519718</v>
-      </c>
-      <c r="C64" t="s">
+        <v>131800</v>
+      </c>
+      <c r="C64" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D64" t="s">
+      <c r="D64" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E64" t="s">
-        <v>33</v>
+      <c r="E64" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="F64" s="1">
-        <v>412</v>
-      </c>
-      <c r="G64" s="6" t="s">
-        <v>153</v>
-      </c>
+        <v>511</v>
+      </c>
+      <c r="G64" s="6"/>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A65" t="s">
-        <v>143</v>
+      <c r="A65" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="B65" s="3">
-        <v>519723</v>
-      </c>
-      <c r="C65" t="s">
+        <v>511010</v>
+      </c>
+      <c r="C65" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D65" t="s">
+      <c r="D65" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E65" t="s">
-        <v>33</v>
+      <c r="E65" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="F65" s="1">
-        <v>412</v>
+        <v>511</v>
       </c>
       <c r="G65" s="6" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>146</v>
-      </c>
-      <c r="B66">
-        <v>519776</v>
+        <v>140</v>
+      </c>
+      <c r="B66" s="3">
+        <v>6793</v>
       </c>
       <c r="C66" t="s">
         <v>31</v>
@@ -2502,122 +2503,122 @@
         <v>33</v>
       </c>
       <c r="F66" s="1">
-        <v>412</v>
+        <v>512</v>
       </c>
       <c r="G66" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A67" s="1" t="s">
-        <v>37</v>
+      <c r="A67" t="s">
+        <v>142</v>
       </c>
       <c r="B67" s="3">
-        <v>340001</v>
-      </c>
-      <c r="C67" s="1" t="s">
+        <v>519718</v>
+      </c>
+      <c r="C67" t="s">
         <v>31</v>
       </c>
-      <c r="D67" s="1" t="s">
+      <c r="D67" t="s">
         <v>34</v>
       </c>
-      <c r="E67" s="1" t="s">
+      <c r="E67" t="s">
         <v>33</v>
       </c>
       <c r="F67" s="1">
-        <v>412</v>
+        <v>512</v>
       </c>
       <c r="G67" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A68" s="1" t="s">
-        <v>36</v>
+      <c r="A68" t="s">
+        <v>143</v>
       </c>
       <c r="B68" s="3">
-        <v>110027</v>
-      </c>
-      <c r="C68" s="1" t="s">
+        <v>519723</v>
+      </c>
+      <c r="C68" t="s">
         <v>31</v>
       </c>
-      <c r="D68" s="1" t="s">
+      <c r="D68" t="s">
         <v>34</v>
       </c>
-      <c r="E68" s="1" t="s">
+      <c r="E68" t="s">
         <v>33</v>
       </c>
       <c r="F68" s="1">
-        <v>412</v>
+        <v>512</v>
       </c>
       <c r="G68" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A69" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B69" s="3">
-        <v>519977</v>
-      </c>
-      <c r="C69" s="1" t="s">
+      <c r="A69" t="s">
+        <v>146</v>
+      </c>
+      <c r="B69">
+        <v>519776</v>
+      </c>
+      <c r="C69" t="s">
         <v>31</v>
       </c>
-      <c r="D69" s="1" t="s">
+      <c r="D69" t="s">
         <v>34</v>
       </c>
-      <c r="E69" s="1" t="s">
+      <c r="E69" t="s">
         <v>33</v>
       </c>
       <c r="F69" s="1">
-        <v>412</v>
+        <v>512</v>
       </c>
       <c r="G69" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B70" s="3">
-        <v>1061</v>
+        <v>340001</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>31</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F70" s="1">
-        <v>421</v>
+        <v>512</v>
       </c>
       <c r="G70" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="B71" s="3">
-        <v>518880</v>
+        <v>110027</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="F71" s="1">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="G71" s="6" t="s">
         <v>152</v>
@@ -2625,54 +2626,56 @@
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="B72" s="3">
-        <v>216</v>
+        <v>519977</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="F72" s="1">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="G72" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="B73" s="3">
-        <v>999979</v>
+        <v>1061</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F73" s="1">
-        <v>512</v>
-      </c>
-      <c r="G73" s="7"/>
+        <v>521</v>
+      </c>
+      <c r="G73" s="6" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
-        <v>155</v>
+        <v>28</v>
       </c>
       <c r="B74" s="3">
-        <v>162411</v>
+        <v>518880</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>22</v>
@@ -2681,21 +2684,21 @@
         <v>22</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="F74" s="1">
-        <v>513</v>
+        <v>611</v>
       </c>
       <c r="G74" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B75" s="3">
-        <v>501018</v>
+        <v>216</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>22</v>
@@ -2704,82 +2707,80 @@
         <v>22</v>
       </c>
       <c r="E75" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F75" s="1">
+        <v>611</v>
+      </c>
+      <c r="G75" s="6" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A76" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B76" s="3">
+        <v>999979</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F76" s="1">
+        <v>612</v>
+      </c>
+      <c r="G76" s="7"/>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A77" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B77" s="3">
+        <v>162411</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E77" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F75" s="1">
-        <v>513</v>
-      </c>
-      <c r="G75" s="6" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A76" t="s">
-        <v>141</v>
-      </c>
-      <c r="B76" s="3">
-        <v>519700</v>
-      </c>
-      <c r="C76" t="s">
-        <v>147</v>
-      </c>
-      <c r="D76" t="s">
-        <v>148</v>
-      </c>
-      <c r="E76" t="s">
-        <v>149</v>
-      </c>
-      <c r="F76">
-        <v>611</v>
-      </c>
-      <c r="G76" s="6" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A77" t="s">
-        <v>144</v>
-      </c>
-      <c r="B77" s="3">
-        <v>519752</v>
-      </c>
-      <c r="C77" t="s">
-        <v>147</v>
-      </c>
-      <c r="D77" t="s">
-        <v>148</v>
-      </c>
-      <c r="E77" t="s">
-        <v>150</v>
-      </c>
-      <c r="F77">
-        <v>612</v>
+      <c r="F77" s="1">
+        <v>613</v>
       </c>
       <c r="G77" s="6" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A78" t="s">
-        <v>145</v>
+      <c r="A78" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="B78" s="3">
-        <v>519755</v>
-      </c>
-      <c r="C78" t="s">
-        <v>147</v>
-      </c>
-      <c r="D78" t="s">
-        <v>148</v>
-      </c>
-      <c r="E78" t="s">
-        <v>150</v>
-      </c>
-      <c r="F78">
-        <v>612</v>
+        <v>501018</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F78" s="1">
+        <v>613</v>
       </c>
       <c r="G78" s="6" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.2">
@@ -2993,8 +2994,8 @@
       <c r="G88" s="7"/>
     </row>
   </sheetData>
-  <sortState ref="A2:F88">
-    <sortCondition ref="F50"/>
+  <sortState ref="A2:G88">
+    <sortCondition ref="F34"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/scripts/src/config/资产配置分类表.xlsx
+++ b/scripts/src/config/资产配置分类表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\finance-data\Scripts\src\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4895EA37-4919-4363-B830-26A641F82D14}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{851B7D10-90EE-4039-8E70-8C23ECAC4E5E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4260" yWindow="3915" windowWidth="28800" windowHeight="15435" xr2:uid="{A2CED1EC-343A-4CFC-976C-17F1726B3D68}"/>
+    <workbookView xWindow="28185" yWindow="2580" windowWidth="6210" windowHeight="13365" xr2:uid="{A2CED1EC-343A-4CFC-976C-17F1726B3D68}"/>
   </bookViews>
   <sheets>
     <sheet name="资产分类" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="161">
   <si>
     <t>无息外借款</t>
   </si>
@@ -567,6 +567,18 @@
   </si>
   <si>
     <t>混合型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交银周期回报灵活配置混合A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交银信用添利债券(LOF)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交银裕盈纯债债券A</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -999,10 +1011,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7002D332-7AD6-42B5-A99D-39647A47F5B6}">
-  <dimension ref="A1:G88"/>
+  <dimension ref="A1:G91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="C59" sqref="C59"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="I73" sqref="I73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2312,10 +2324,10 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c r="B58" s="3">
-        <v>519752</v>
+        <v>519738</v>
       </c>
       <c r="C58" t="s">
         <v>157</v>
@@ -2327,18 +2339,18 @@
         <v>149</v>
       </c>
       <c r="F58">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="G58" s="6" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
-        <v>145</v>
+      <c r="A59" s="1" t="s">
+        <v>159</v>
       </c>
       <c r="B59" s="3">
-        <v>519755</v>
+        <v>164902</v>
       </c>
       <c r="C59" t="s">
         <v>157</v>
@@ -2350,62 +2362,64 @@
         <v>149</v>
       </c>
       <c r="F59">
+        <v>411</v>
+      </c>
+      <c r="G59" s="6" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>144</v>
+      </c>
+      <c r="B60" s="3">
+        <v>519752</v>
+      </c>
+      <c r="C60" t="s">
+        <v>157</v>
+      </c>
+      <c r="D60" t="s">
+        <v>147</v>
+      </c>
+      <c r="E60" t="s">
+        <v>149</v>
+      </c>
+      <c r="F60">
         <v>412</v>
       </c>
-      <c r="G59" s="6" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A60" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B60" s="3">
-        <v>3376</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E60" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F60" s="1">
-        <v>511</v>
-      </c>
       <c r="G60" s="6" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A61" s="1" t="s">
-        <v>43</v>
+      <c r="A61" t="s">
+        <v>145</v>
       </c>
       <c r="B61" s="3">
-        <v>204001</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E61" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F61" s="1">
-        <v>511</v>
-      </c>
-      <c r="G61" s="6"/>
+        <v>519755</v>
+      </c>
+      <c r="C61" t="s">
+        <v>157</v>
+      </c>
+      <c r="D61" t="s">
+        <v>147</v>
+      </c>
+      <c r="E61" t="s">
+        <v>149</v>
+      </c>
+      <c r="F61">
+        <v>412</v>
+      </c>
+      <c r="G61" s="6" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B62" s="3">
-        <v>204007</v>
+        <v>3376</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>31</v>
@@ -2419,14 +2433,16 @@
       <c r="F62" s="1">
         <v>511</v>
       </c>
-      <c r="G62" s="6"/>
+      <c r="G62" s="6" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B63" s="3">
-        <v>131810</v>
+        <v>204001</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>31</v>
@@ -2444,10 +2460,10 @@
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B64" s="3">
-        <v>131800</v>
+        <v>204007</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>31</v>
@@ -2465,10 +2481,10 @@
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B65" s="3">
-        <v>511010</v>
+        <v>131810</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>31</v>
@@ -2482,74 +2498,70 @@
       <c r="F65" s="1">
         <v>511</v>
       </c>
-      <c r="G65" s="6" t="s">
+      <c r="G65" s="6"/>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A66" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B66" s="3">
+        <v>131800</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F66" s="1">
+        <v>511</v>
+      </c>
+      <c r="G66" s="6"/>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A67" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B67" s="3">
+        <v>511010</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F67" s="1">
+        <v>511</v>
+      </c>
+      <c r="G67" s="6" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A66" t="s">
-        <v>140</v>
-      </c>
-      <c r="B66" s="3">
-        <v>6793</v>
-      </c>
-      <c r="C66" t="s">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A68" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B68" s="3">
+        <v>519776</v>
+      </c>
+      <c r="C68" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D66" t="s">
+      <c r="D68" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E66" t="s">
-        <v>33</v>
-      </c>
-      <c r="F66" s="1">
-        <v>512</v>
-      </c>
-      <c r="G66" s="6" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A67" t="s">
-        <v>142</v>
-      </c>
-      <c r="B67" s="3">
-        <v>519718</v>
-      </c>
-      <c r="C67" t="s">
-        <v>31</v>
-      </c>
-      <c r="D67" t="s">
-        <v>34</v>
-      </c>
-      <c r="E67" t="s">
-        <v>33</v>
-      </c>
-      <c r="F67" s="1">
-        <v>512</v>
-      </c>
-      <c r="G67" s="6" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A68" t="s">
-        <v>143</v>
-      </c>
-      <c r="B68" s="3">
-        <v>519723</v>
-      </c>
-      <c r="C68" t="s">
-        <v>31</v>
-      </c>
-      <c r="D68" t="s">
-        <v>34</v>
-      </c>
-      <c r="E68" t="s">
-        <v>33</v>
+      <c r="E68" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="F68" s="1">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="G68" s="6" t="s">
         <v>152</v>
@@ -2557,10 +2569,10 @@
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>146</v>
-      </c>
-      <c r="B69">
-        <v>519776</v>
+        <v>140</v>
+      </c>
+      <c r="B69" s="3">
+        <v>6793</v>
       </c>
       <c r="C69" t="s">
         <v>31</v>
@@ -2579,19 +2591,19 @@
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A70" s="1" t="s">
-        <v>37</v>
+      <c r="A70" t="s">
+        <v>142</v>
       </c>
       <c r="B70" s="3">
-        <v>340001</v>
-      </c>
-      <c r="C70" s="1" t="s">
+        <v>519718</v>
+      </c>
+      <c r="C70" t="s">
         <v>31</v>
       </c>
-      <c r="D70" s="1" t="s">
+      <c r="D70" t="s">
         <v>34</v>
       </c>
-      <c r="E70" s="1" t="s">
+      <c r="E70" t="s">
         <v>33</v>
       </c>
       <c r="F70" s="1">
@@ -2602,19 +2614,19 @@
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A71" s="1" t="s">
-        <v>36</v>
+      <c r="A71" t="s">
+        <v>143</v>
       </c>
       <c r="B71" s="3">
-        <v>110027</v>
-      </c>
-      <c r="C71" s="1" t="s">
+        <v>519723</v>
+      </c>
+      <c r="C71" t="s">
         <v>31</v>
       </c>
-      <c r="D71" s="1" t="s">
+      <c r="D71" t="s">
         <v>34</v>
       </c>
-      <c r="E71" s="1" t="s">
+      <c r="E71" t="s">
         <v>33</v>
       </c>
       <c r="F71" s="1">
@@ -2625,19 +2637,19 @@
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A72" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B72" s="3">
-        <v>519977</v>
-      </c>
-      <c r="C72" s="1" t="s">
+      <c r="A72" t="s">
+        <v>146</v>
+      </c>
+      <c r="B72">
+        <v>519776</v>
+      </c>
+      <c r="C72" t="s">
         <v>31</v>
       </c>
-      <c r="D72" s="1" t="s">
+      <c r="D72" t="s">
         <v>34</v>
       </c>
-      <c r="E72" s="1" t="s">
+      <c r="E72" t="s">
         <v>33</v>
       </c>
       <c r="F72" s="1">
@@ -2649,22 +2661,22 @@
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B73" s="3">
-        <v>1061</v>
+        <v>340001</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>31</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F73" s="1">
-        <v>521</v>
+        <v>512</v>
       </c>
       <c r="G73" s="6" t="s">
         <v>152</v>
@@ -2672,45 +2684,45 @@
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="B74" s="3">
-        <v>518880</v>
+        <v>110027</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="F74" s="1">
-        <v>611</v>
+        <v>512</v>
       </c>
       <c r="G74" s="6" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="B75" s="3">
-        <v>216</v>
+        <v>519977</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="F75" s="1">
-        <v>611</v>
+        <v>512</v>
       </c>
       <c r="G75" s="6" t="s">
         <v>152</v>
@@ -2718,31 +2730,33 @@
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="B76" s="3">
-        <v>999979</v>
+        <v>1061</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F76" s="1">
-        <v>612</v>
-      </c>
-      <c r="G76" s="7"/>
+        <v>521</v>
+      </c>
+      <c r="G76" s="6" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>154</v>
+        <v>28</v>
       </c>
       <c r="B77" s="3">
-        <v>162411</v>
+        <v>518880</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>22</v>
@@ -2751,10 +2765,10 @@
         <v>22</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="F77" s="1">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="G77" s="6" t="s">
         <v>151</v>
@@ -2762,10 +2776,10 @@
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B78" s="3">
-        <v>501018</v>
+        <v>216</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>22</v>
@@ -2774,168 +2788,172 @@
         <v>22</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="F78" s="1">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="G78" s="6" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="B79" s="3">
-        <v>999988</v>
+        <v>999979</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>135</v>
+        <v>22</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>137</v>
+        <v>22</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="F79" s="1">
-        <v>988</v>
+        <v>612</v>
       </c>
       <c r="G79" s="7"/>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>1</v>
+        <v>154</v>
       </c>
       <c r="B80" s="3">
-        <v>999989</v>
+        <v>162411</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>135</v>
+        <v>22</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>136</v>
+        <v>22</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>138</v>
+        <v>21</v>
       </c>
       <c r="F80" s="1">
-        <v>989</v>
-      </c>
-      <c r="G80" s="7"/>
+        <v>613</v>
+      </c>
+      <c r="G80" s="6" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="B81" s="3">
-        <v>999997</v>
+        <v>501018</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>131</v>
+        <v>22</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>133</v>
+        <v>21</v>
       </c>
       <c r="F81" s="1">
-        <v>997</v>
-      </c>
-      <c r="G81" s="7"/>
+        <v>613</v>
+      </c>
+      <c r="G81" s="6" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B82" s="3">
-        <v>999998</v>
+        <v>999988</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>5</v>
+        <v>135</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>134</v>
+        <v>0</v>
       </c>
       <c r="F82" s="1">
-        <v>998</v>
+        <v>988</v>
       </c>
       <c r="G82" s="7"/>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="B83" s="3">
-        <v>2086</v>
+        <v>999989</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>5</v>
+        <v>135</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>4</v>
+        <v>138</v>
       </c>
       <c r="F83" s="1">
-        <v>999</v>
+        <v>989</v>
       </c>
       <c r="G83" s="7"/>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B84" s="3">
-        <v>999999</v>
+        <v>999997</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>4</v>
+        <v>133</v>
       </c>
       <c r="F84" s="1">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="G84" s="7"/>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B85" s="3">
-        <v>511990</v>
+        <v>999998</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>4</v>
+        <v>134</v>
       </c>
       <c r="F85" s="1">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="G85" s="7"/>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B86" s="3">
-        <v>940018</v>
+        <v>2086</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>5</v>
@@ -2953,10 +2971,10 @@
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B87" s="3">
-        <v>511980</v>
+        <v>999999</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>5</v>
@@ -2974,10 +2992,10 @@
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B88" s="3">
-        <v>511880</v>
+        <v>511990</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>5</v>
@@ -2993,8 +3011,71 @@
       </c>
       <c r="G88" s="7"/>
     </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A89" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B89" s="3">
+        <v>940018</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F89" s="1">
+        <v>999</v>
+      </c>
+      <c r="G89" s="7"/>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A90" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B90" s="3">
+        <v>511980</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F90" s="1">
+        <v>999</v>
+      </c>
+      <c r="G90" s="7"/>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A91" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B91" s="3">
+        <v>511880</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F91" s="1">
+        <v>999</v>
+      </c>
+      <c r="G91" s="7"/>
+    </row>
   </sheetData>
-  <sortState ref="A2:G88">
+  <sortState ref="A2:G91">
     <sortCondition ref="F34"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/scripts/src/config/资产配置分类表.xlsx
+++ b/scripts/src/config/资产配置分类表.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20353"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\finance-data\Scripts\src\config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\finance-data\scripts\src\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{851B7D10-90EE-4039-8E70-8C23ECAC4E5E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{280BDE93-1CEE-4E2E-9C37-E8CFCB8D9EB7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28185" yWindow="2580" windowWidth="6210" windowHeight="13365" xr2:uid="{A2CED1EC-343A-4CFC-976C-17F1726B3D68}"/>
+    <workbookView xWindow="28188" yWindow="2580" windowWidth="6216" windowHeight="13368" xr2:uid="{A2CED1EC-343A-4CFC-976C-17F1726B3D68}"/>
   </bookViews>
   <sheets>
     <sheet name="资产分类" sheetId="1" r:id="rId1"/>
@@ -19,12 +19,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -1013,19 +1007,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7002D332-7AD6-42B5-A99D-39647A47F5B6}">
   <dimension ref="A1:G91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="I73" sqref="I73"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="A74" sqref="A74:G74"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="15" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>130</v>
       </c>
@@ -1048,7 +1042,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>125</v>
       </c>
@@ -1071,7 +1065,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>124</v>
       </c>
@@ -1094,7 +1088,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>122</v>
       </c>
@@ -1117,7 +1111,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>120</v>
       </c>
@@ -1140,7 +1134,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>119</v>
       </c>
@@ -1163,7 +1157,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>118</v>
       </c>
@@ -1186,7 +1180,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>116</v>
       </c>
@@ -1209,7 +1203,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>115</v>
       </c>
@@ -1232,7 +1226,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>113</v>
       </c>
@@ -1255,7 +1249,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>111</v>
       </c>
@@ -1278,7 +1272,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>108</v>
       </c>
@@ -1301,7 +1295,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>107</v>
       </c>
@@ -1324,7 +1318,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>106</v>
       </c>
@@ -1347,7 +1341,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>105</v>
       </c>
@@ -1370,7 +1364,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>104</v>
       </c>
@@ -1393,7 +1387,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>103</v>
       </c>
@@ -1416,7 +1410,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>102</v>
       </c>
@@ -1439,7 +1433,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>100</v>
       </c>
@@ -1462,7 +1456,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>98</v>
       </c>
@@ -1485,7 +1479,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>97</v>
       </c>
@@ -1508,7 +1502,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>96</v>
       </c>
@@ -1531,7 +1525,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>91</v>
       </c>
@@ -1554,7 +1548,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>94</v>
       </c>
@@ -1577,7 +1571,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>93</v>
       </c>
@@ -1600,7 +1594,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>90</v>
       </c>
@@ -1623,7 +1617,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>89</v>
       </c>
@@ -1646,7 +1640,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>87</v>
       </c>
@@ -1669,7 +1663,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>84</v>
       </c>
@@ -1692,7 +1686,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>82</v>
       </c>
@@ -1715,7 +1709,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>81</v>
       </c>
@@ -1738,7 +1732,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>80</v>
       </c>
@@ -1761,7 +1755,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>78</v>
       </c>
@@ -1784,7 +1778,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>77</v>
       </c>
@@ -1807,7 +1801,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>75</v>
       </c>
@@ -1830,7 +1824,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>74</v>
       </c>
@@ -1853,7 +1847,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>72</v>
       </c>
@@ -1876,7 +1870,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>71</v>
       </c>
@@ -1899,7 +1893,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>155</v>
       </c>
@@ -1922,7 +1916,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>69</v>
       </c>
@@ -1945,7 +1939,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>67</v>
       </c>
@@ -1968,7 +1962,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>65</v>
       </c>
@@ -1991,7 +1985,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>20</v>
       </c>
@@ -2012,7 +2006,7 @@
       </c>
       <c r="G43" s="7"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>19</v>
       </c>
@@ -2033,7 +2027,7 @@
       </c>
       <c r="G44" s="7"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>18</v>
       </c>
@@ -2054,7 +2048,7 @@
       </c>
       <c r="G45" s="7"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>17</v>
       </c>
@@ -2075,7 +2069,7 @@
       </c>
       <c r="G46" s="7"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>16</v>
       </c>
@@ -2096,7 +2090,7 @@
       </c>
       <c r="G47" s="7"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>15</v>
       </c>
@@ -2117,7 +2111,7 @@
       </c>
       <c r="G48" s="7"/>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>14</v>
       </c>
@@ -2138,7 +2132,7 @@
       </c>
       <c r="G49" s="7"/>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>63</v>
       </c>
@@ -2161,7 +2155,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>62</v>
       </c>
@@ -2184,7 +2178,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>60</v>
       </c>
@@ -2207,7 +2201,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>58</v>
       </c>
@@ -2230,7 +2224,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>55</v>
       </c>
@@ -2253,7 +2247,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>51</v>
       </c>
@@ -2276,7 +2270,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>48</v>
       </c>
@@ -2299,7 +2293,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>141</v>
       </c>
@@ -2322,7 +2316,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>158</v>
       </c>
@@ -2345,12 +2339,12 @@
         <v>152</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A59" s="1" t="s">
-        <v>159</v>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>144</v>
       </c>
       <c r="B59" s="3">
-        <v>164902</v>
+        <v>519752</v>
       </c>
       <c r="C59" t="s">
         <v>157</v>
@@ -2362,18 +2356,18 @@
         <v>149</v>
       </c>
       <c r="F59">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="G59" s="6" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B60" s="3">
-        <v>519752</v>
+        <v>519755</v>
       </c>
       <c r="C60" t="s">
         <v>157</v>
@@ -2391,35 +2385,35 @@
         <v>152</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
-        <v>145</v>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="B61" s="3">
-        <v>519755</v>
-      </c>
-      <c r="C61" t="s">
-        <v>157</v>
-      </c>
-      <c r="D61" t="s">
-        <v>147</v>
-      </c>
-      <c r="E61" t="s">
-        <v>149</v>
-      </c>
-      <c r="F61">
-        <v>412</v>
+        <v>3376</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F61" s="1">
+        <v>511</v>
       </c>
       <c r="G61" s="6" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B62" s="3">
-        <v>3376</v>
+        <v>204001</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>31</v>
@@ -2433,16 +2427,14 @@
       <c r="F62" s="1">
         <v>511</v>
       </c>
-      <c r="G62" s="6" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G62" s="6"/>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B63" s="3">
-        <v>204001</v>
+        <v>204007</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>31</v>
@@ -2458,12 +2450,12 @@
       </c>
       <c r="G63" s="6"/>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B64" s="3">
-        <v>204007</v>
+        <v>131810</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>31</v>
@@ -2479,12 +2471,12 @@
       </c>
       <c r="G64" s="6"/>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B65" s="3">
-        <v>131810</v>
+        <v>131800</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>31</v>
@@ -2500,12 +2492,12 @@
       </c>
       <c r="G65" s="6"/>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B66" s="3">
-        <v>131800</v>
+        <v>511010</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>31</v>
@@ -2519,14 +2511,16 @@
       <c r="F66" s="1">
         <v>511</v>
       </c>
-      <c r="G66" s="6"/>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G66" s="6" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>39</v>
+        <v>160</v>
       </c>
       <c r="B67" s="3">
-        <v>511010</v>
+        <v>519776</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>31</v>
@@ -2541,38 +2535,38 @@
         <v>511</v>
       </c>
       <c r="G67" s="6" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A68" s="1" t="s">
-        <v>160</v>
+        <v>152</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>140</v>
       </c>
       <c r="B68" s="3">
-        <v>519776</v>
-      </c>
-      <c r="C68" s="1" t="s">
+        <v>6793</v>
+      </c>
+      <c r="C68" t="s">
         <v>31</v>
       </c>
-      <c r="D68" s="1" t="s">
+      <c r="D68" t="s">
         <v>34</v>
       </c>
-      <c r="E68" s="1" t="s">
-        <v>38</v>
+      <c r="E68" t="s">
+        <v>33</v>
       </c>
       <c r="F68" s="1">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="G68" s="6" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B69" s="3">
-        <v>6793</v>
+        <v>519718</v>
       </c>
       <c r="C69" t="s">
         <v>31</v>
@@ -2590,12 +2584,12 @@
         <v>152</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B70" s="3">
-        <v>519718</v>
+        <v>519723</v>
       </c>
       <c r="C70" t="s">
         <v>31</v>
@@ -2613,12 +2607,12 @@
         <v>152</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>143</v>
-      </c>
-      <c r="B71" s="3">
-        <v>519723</v>
+        <v>146</v>
+      </c>
+      <c r="B71">
+        <v>519776</v>
       </c>
       <c r="C71" t="s">
         <v>31</v>
@@ -2636,20 +2630,20 @@
         <v>152</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A72" t="s">
-        <v>146</v>
-      </c>
-      <c r="B72">
-        <v>519776</v>
-      </c>
-      <c r="C72" t="s">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B72" s="3">
+        <v>340001</v>
+      </c>
+      <c r="C72" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D72" t="s">
+      <c r="D72" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E72" t="s">
+      <c r="E72" s="1" t="s">
         <v>33</v>
       </c>
       <c r="F72" s="1">
@@ -2659,12 +2653,12 @@
         <v>152</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B73" s="3">
-        <v>340001</v>
+        <v>110027</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>31</v>
@@ -2682,20 +2676,20 @@
         <v>152</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>36</v>
+        <v>159</v>
       </c>
       <c r="B74" s="3">
-        <v>110027</v>
-      </c>
-      <c r="C74" s="1" t="s">
+        <v>164902</v>
+      </c>
+      <c r="C74" t="s">
         <v>31</v>
       </c>
-      <c r="D74" s="1" t="s">
+      <c r="D74" t="s">
         <v>34</v>
       </c>
-      <c r="E74" s="1" t="s">
+      <c r="E74" t="s">
         <v>33</v>
       </c>
       <c r="F74" s="1">
@@ -2705,7 +2699,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>35</v>
       </c>
@@ -2728,7 +2722,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>32</v>
       </c>
@@ -2751,7 +2745,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>28</v>
       </c>
@@ -2774,7 +2768,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>27</v>
       </c>
@@ -2797,7 +2791,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>25</v>
       </c>
@@ -2818,7 +2812,7 @@
       </c>
       <c r="G79" s="7"/>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>154</v>
       </c>
@@ -2841,7 +2835,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>23</v>
       </c>
@@ -2864,7 +2858,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>0</v>
       </c>
@@ -2885,7 +2879,7 @@
       </c>
       <c r="G82" s="7"/>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>1</v>
       </c>
@@ -2906,7 +2900,7 @@
       </c>
       <c r="G83" s="7"/>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>2</v>
       </c>
@@ -2927,7 +2921,7 @@
       </c>
       <c r="G84" s="7"/>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>3</v>
       </c>
@@ -2948,7 +2942,7 @@
       </c>
       <c r="G85" s="7"/>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>11</v>
       </c>
@@ -2969,7 +2963,7 @@
       </c>
       <c r="G86" s="7"/>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>10</v>
       </c>
@@ -2990,7 +2984,7 @@
       </c>
       <c r="G87" s="7"/>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>9</v>
       </c>
@@ -3011,7 +3005,7 @@
       </c>
       <c r="G88" s="7"/>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>8</v>
       </c>
@@ -3032,7 +3026,7 @@
       </c>
       <c r="G89" s="7"/>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>7</v>
       </c>
@@ -3053,7 +3047,7 @@
       </c>
       <c r="G90" s="7"/>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>6</v>
       </c>

--- a/scripts/src/config/资产配置分类表.xlsx
+++ b/scripts/src/config/资产配置分类表.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20353"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\finance-data\scripts\src\config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\finance-data\Scripts\src\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{280BDE93-1CEE-4E2E-9C37-E8CFCB8D9EB7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4F905D1-CFB0-4A0B-947F-AC255D967954}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28188" yWindow="2580" windowWidth="6216" windowHeight="13368" xr2:uid="{A2CED1EC-343A-4CFC-976C-17F1726B3D68}"/>
+    <workbookView xWindow="5070" yWindow="5070" windowWidth="6210" windowHeight="13365" xr2:uid="{A2CED1EC-343A-4CFC-976C-17F1726B3D68}"/>
   </bookViews>
   <sheets>
     <sheet name="资产分类" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="169">
   <si>
     <t>无息外借款</t>
   </si>
@@ -573,6 +573,38 @@
   </si>
   <si>
     <t>交银裕盈纯债债券A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>易方达中证海外联接人民币A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新华纯债添利C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>易方达安瑞短债C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工银双利债券B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安信稳健增值混合C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>民生加银鹏程混合C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鹏扬泓利债券C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>长安鑫益增强混合C</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1005,21 +1037,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7002D332-7AD6-42B5-A99D-39647A47F5B6}">
-  <dimension ref="A1:G91"/>
+  <dimension ref="A1:G100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="A74" sqref="A74:G74"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="K59" sqref="K59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>130</v>
       </c>
@@ -1042,7 +1074,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>125</v>
       </c>
@@ -1065,7 +1097,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>124</v>
       </c>
@@ -1088,7 +1120,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>122</v>
       </c>
@@ -1111,7 +1143,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>120</v>
       </c>
@@ -1134,7 +1166,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>119</v>
       </c>
@@ -1157,7 +1189,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>118</v>
       </c>
@@ -1180,7 +1212,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>116</v>
       </c>
@@ -1203,7 +1235,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>115</v>
       </c>
@@ -1226,7 +1258,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>113</v>
       </c>
@@ -1249,7 +1281,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>111</v>
       </c>
@@ -1272,7 +1304,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>108</v>
       </c>
@@ -1295,7 +1327,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>107</v>
       </c>
@@ -1318,7 +1350,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>106</v>
       </c>
@@ -1341,7 +1373,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>105</v>
       </c>
@@ -1364,7 +1396,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>104</v>
       </c>
@@ -1387,7 +1419,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>103</v>
       </c>
@@ -1410,7 +1442,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>102</v>
       </c>
@@ -1433,7 +1465,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>100</v>
       </c>
@@ -1456,7 +1488,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>98</v>
       </c>
@@ -1479,7 +1511,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>97</v>
       </c>
@@ -1502,7 +1534,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>96</v>
       </c>
@@ -1525,7 +1557,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>91</v>
       </c>
@@ -1548,7 +1580,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>94</v>
       </c>
@@ -1571,7 +1603,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>93</v>
       </c>
@@ -1594,7 +1626,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>90</v>
       </c>
@@ -1617,7 +1649,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>89</v>
       </c>
@@ -1640,7 +1672,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>87</v>
       </c>
@@ -1663,7 +1695,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>84</v>
       </c>
@@ -1686,7 +1718,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>82</v>
       </c>
@@ -1709,7 +1741,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>81</v>
       </c>
@@ -1732,7 +1764,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>80</v>
       </c>
@@ -1755,7 +1787,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>78</v>
       </c>
@@ -1778,7 +1810,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>77</v>
       </c>
@@ -1801,7 +1833,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>75</v>
       </c>
@@ -1824,7 +1856,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>74</v>
       </c>
@@ -1847,7 +1879,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>72</v>
       </c>
@@ -1870,7 +1902,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>71</v>
       </c>
@@ -1893,7 +1925,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>155</v>
       </c>
@@ -1916,7 +1948,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>69</v>
       </c>
@@ -1939,7 +1971,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>67</v>
       </c>
@@ -1962,7 +1994,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>65</v>
       </c>
@@ -1985,7 +2017,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>20</v>
       </c>
@@ -2006,7 +2038,7 @@
       </c>
       <c r="G43" s="7"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>19</v>
       </c>
@@ -2027,7 +2059,7 @@
       </c>
       <c r="G44" s="7"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>18</v>
       </c>
@@ -2048,7 +2080,7 @@
       </c>
       <c r="G45" s="7"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>17</v>
       </c>
@@ -2069,7 +2101,7 @@
       </c>
       <c r="G46" s="7"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>16</v>
       </c>
@@ -2090,7 +2122,7 @@
       </c>
       <c r="G47" s="7"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>15</v>
       </c>
@@ -2111,7 +2143,7 @@
       </c>
       <c r="G48" s="7"/>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>14</v>
       </c>
@@ -2132,7 +2164,7 @@
       </c>
       <c r="G49" s="7"/>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>63</v>
       </c>
@@ -2155,7 +2187,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>62</v>
       </c>
@@ -2178,7 +2210,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>60</v>
       </c>
@@ -2201,7 +2233,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>58</v>
       </c>
@@ -2224,7 +2256,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>55</v>
       </c>
@@ -2247,81 +2279,81 @@
         <v>152</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B55" s="3">
+        <v>6327</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F55" s="1">
+        <v>221</v>
+      </c>
+      <c r="G55" s="6" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A56" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B55" s="3">
+      <c r="B56" s="3">
         <v>179</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F55" s="1">
-        <v>314</v>
-      </c>
-      <c r="G55" s="6" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B56" s="3">
-        <v>614</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D56" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F56" s="1">
+        <v>314</v>
+      </c>
+      <c r="G56" s="6" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A57" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B57" s="3">
+        <v>614</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D57" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E56" s="1" t="s">
+      <c r="E57" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F56" s="1">
+      <c r="F57" s="1">
         <v>321</v>
       </c>
-      <c r="G56" s="6" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
+      <c r="G57" s="6" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
         <v>141</v>
       </c>
-      <c r="B57" s="3">
+      <c r="B58" s="3">
         <v>519700</v>
-      </c>
-      <c r="C57" t="s">
-        <v>157</v>
-      </c>
-      <c r="D57" t="s">
-        <v>147</v>
-      </c>
-      <c r="E57" t="s">
-        <v>148</v>
-      </c>
-      <c r="F57">
-        <v>411</v>
-      </c>
-      <c r="G57" s="6" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>158</v>
-      </c>
-      <c r="B58" s="3">
-        <v>519738</v>
       </c>
       <c r="C58" t="s">
         <v>157</v>
@@ -2330,7 +2362,7 @@
         <v>147</v>
       </c>
       <c r="E58" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F58">
         <v>411</v>
@@ -2339,12 +2371,12 @@
         <v>152</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c r="B59" s="3">
-        <v>519752</v>
+        <v>519738</v>
       </c>
       <c r="C59" t="s">
         <v>157</v>
@@ -2356,18 +2388,18 @@
         <v>149</v>
       </c>
       <c r="F59">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="G59" s="6" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B60" s="3">
-        <v>519755</v>
+        <v>519752</v>
       </c>
       <c r="C60" t="s">
         <v>157</v>
@@ -2385,142 +2417,150 @@
         <v>152</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" s="1" t="s">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>145</v>
+      </c>
+      <c r="B61" s="3">
+        <v>519755</v>
+      </c>
+      <c r="C61" t="s">
+        <v>157</v>
+      </c>
+      <c r="D61" t="s">
+        <v>147</v>
+      </c>
+      <c r="E61" t="s">
+        <v>149</v>
+      </c>
+      <c r="F61">
+        <v>412</v>
+      </c>
+      <c r="G61" s="6" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>164</v>
+      </c>
+      <c r="B62" s="3">
+        <v>485011</v>
+      </c>
+      <c r="C62" t="s">
+        <v>157</v>
+      </c>
+      <c r="D62" t="s">
+        <v>147</v>
+      </c>
+      <c r="E62" t="s">
+        <v>149</v>
+      </c>
+      <c r="F62">
+        <v>412</v>
+      </c>
+      <c r="G62" s="6" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>165</v>
+      </c>
+      <c r="B63" s="3">
+        <v>1338</v>
+      </c>
+      <c r="C63" t="s">
+        <v>157</v>
+      </c>
+      <c r="D63" t="s">
+        <v>147</v>
+      </c>
+      <c r="E63" t="s">
+        <v>149</v>
+      </c>
+      <c r="F63">
+        <v>412</v>
+      </c>
+      <c r="G63" s="6" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>166</v>
+      </c>
+      <c r="B64" s="3">
+        <v>7749</v>
+      </c>
+      <c r="C64" t="s">
+        <v>157</v>
+      </c>
+      <c r="D64" t="s">
+        <v>147</v>
+      </c>
+      <c r="E64" t="s">
+        <v>149</v>
+      </c>
+      <c r="F64">
+        <v>412</v>
+      </c>
+      <c r="G64" s="6" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>167</v>
+      </c>
+      <c r="B65" s="3">
+        <v>6060</v>
+      </c>
+      <c r="C65" t="s">
+        <v>157</v>
+      </c>
+      <c r="D65" t="s">
+        <v>147</v>
+      </c>
+      <c r="E65" t="s">
+        <v>149</v>
+      </c>
+      <c r="F65">
+        <v>412</v>
+      </c>
+      <c r="G65" s="6" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>168</v>
+      </c>
+      <c r="B66" s="3">
+        <v>2147</v>
+      </c>
+      <c r="C66" t="s">
+        <v>157</v>
+      </c>
+      <c r="D66" t="s">
+        <v>147</v>
+      </c>
+      <c r="E66" t="s">
+        <v>149</v>
+      </c>
+      <c r="F66">
+        <v>412</v>
+      </c>
+      <c r="G66" s="6" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A67" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B61" s="3">
+      <c r="B67" s="3">
         <v>3376</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E61" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F61" s="1">
-        <v>511</v>
-      </c>
-      <c r="G61" s="6" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B62" s="3">
-        <v>204001</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E62" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F62" s="1">
-        <v>511</v>
-      </c>
-      <c r="G62" s="6"/>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B63" s="3">
-        <v>204007</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E63" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F63" s="1">
-        <v>511</v>
-      </c>
-      <c r="G63" s="6"/>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B64" s="3">
-        <v>131810</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E64" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F64" s="1">
-        <v>511</v>
-      </c>
-      <c r="G64" s="6"/>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B65" s="3">
-        <v>131800</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E65" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F65" s="1">
-        <v>511</v>
-      </c>
-      <c r="G65" s="6"/>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B66" s="3">
-        <v>511010</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E66" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F66" s="1">
-        <v>511</v>
-      </c>
-      <c r="G66" s="6" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="B67" s="3">
-        <v>519776</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>31</v>
@@ -2538,104 +2578,102 @@
         <v>152</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>140</v>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A68" s="1" t="s">
+        <v>162</v>
       </c>
       <c r="B68" s="3">
-        <v>6793</v>
-      </c>
-      <c r="C68" t="s">
+        <v>519153</v>
+      </c>
+      <c r="C68" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D68" t="s">
+      <c r="D68" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E68" t="s">
-        <v>33</v>
+      <c r="E68" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="F68" s="1">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="G68" s="6" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>142</v>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A69" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="B69" s="3">
-        <v>519718</v>
-      </c>
-      <c r="C69" t="s">
+        <v>2086</v>
+      </c>
+      <c r="C69" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D69" t="s">
+      <c r="D69" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E69" t="s">
-        <v>33</v>
+      <c r="E69" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="F69" s="1">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="G69" s="6" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>143</v>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A70" s="1" t="s">
+        <v>163</v>
       </c>
       <c r="B70" s="3">
-        <v>519723</v>
-      </c>
-      <c r="C70" t="s">
+        <v>6320</v>
+      </c>
+      <c r="C70" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D70" t="s">
+      <c r="D70" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E70" t="s">
-        <v>33</v>
+      <c r="E70" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="F70" s="1">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="G70" s="6" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>146</v>
-      </c>
-      <c r="B71">
-        <v>519776</v>
-      </c>
-      <c r="C71" t="s">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A71" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B71" s="3">
+        <v>204001</v>
+      </c>
+      <c r="C71" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D71" t="s">
+      <c r="D71" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E71" t="s">
-        <v>33</v>
+      <c r="E71" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="F71" s="1">
-        <v>512</v>
-      </c>
-      <c r="G71" s="6" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+        <v>511</v>
+      </c>
+      <c r="G71" s="6"/>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B72" s="3">
-        <v>340001</v>
+        <v>204007</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>31</v>
@@ -2644,21 +2682,19 @@
         <v>34</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="F72" s="1">
-        <v>512</v>
-      </c>
-      <c r="G72" s="6" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+        <v>511</v>
+      </c>
+      <c r="G72" s="6"/>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B73" s="3">
-        <v>110027</v>
+        <v>131810</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>31</v>
@@ -2667,44 +2703,40 @@
         <v>34</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="F73" s="1">
-        <v>512</v>
-      </c>
-      <c r="G73" s="6" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+        <v>511</v>
+      </c>
+      <c r="G73" s="6"/>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
-        <v>159</v>
+        <v>40</v>
       </c>
       <c r="B74" s="3">
-        <v>164902</v>
-      </c>
-      <c r="C74" t="s">
+        <v>131800</v>
+      </c>
+      <c r="C74" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D74" t="s">
+      <c r="D74" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E74" t="s">
-        <v>33</v>
+      <c r="E74" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="F74" s="1">
-        <v>512</v>
-      </c>
-      <c r="G74" s="6" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+        <v>511</v>
+      </c>
+      <c r="G74" s="6"/>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B75" s="3">
-        <v>519977</v>
+        <v>511010</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>31</v>
@@ -2713,363 +2745,551 @@
         <v>34</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="F75" s="1">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="G75" s="6" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
-        <v>32</v>
+        <v>160</v>
       </c>
       <c r="B76" s="3">
-        <v>1061</v>
+        <v>519776</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>31</v>
       </c>
       <c r="D76" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F76" s="1">
+        <v>511</v>
+      </c>
+      <c r="G76" s="6" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>140</v>
+      </c>
+      <c r="B77" s="3">
+        <v>6793</v>
+      </c>
+      <c r="C77" t="s">
+        <v>31</v>
+      </c>
+      <c r="D77" t="s">
+        <v>34</v>
+      </c>
+      <c r="E77" t="s">
+        <v>33</v>
+      </c>
+      <c r="F77" s="1">
+        <v>512</v>
+      </c>
+      <c r="G77" s="6" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>142</v>
+      </c>
+      <c r="B78" s="3">
+        <v>519718</v>
+      </c>
+      <c r="C78" t="s">
+        <v>31</v>
+      </c>
+      <c r="D78" t="s">
+        <v>34</v>
+      </c>
+      <c r="E78" t="s">
+        <v>33</v>
+      </c>
+      <c r="F78" s="1">
+        <v>512</v>
+      </c>
+      <c r="G78" s="6" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>143</v>
+      </c>
+      <c r="B79" s="3">
+        <v>519723</v>
+      </c>
+      <c r="C79" t="s">
+        <v>31</v>
+      </c>
+      <c r="D79" t="s">
+        <v>34</v>
+      </c>
+      <c r="E79" t="s">
+        <v>33</v>
+      </c>
+      <c r="F79" s="1">
+        <v>512</v>
+      </c>
+      <c r="G79" s="6" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>146</v>
+      </c>
+      <c r="B80">
+        <v>519776</v>
+      </c>
+      <c r="C80" t="s">
+        <v>31</v>
+      </c>
+      <c r="D80" t="s">
+        <v>34</v>
+      </c>
+      <c r="E80" t="s">
+        <v>33</v>
+      </c>
+      <c r="F80" s="1">
+        <v>512</v>
+      </c>
+      <c r="G80" s="6" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A81" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B81" s="3">
+        <v>340001</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F81" s="1">
+        <v>512</v>
+      </c>
+      <c r="G81" s="6" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A82" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B82" s="3">
+        <v>110027</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F82" s="1">
+        <v>512</v>
+      </c>
+      <c r="G82" s="6" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A83" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B83" s="3">
+        <v>164902</v>
+      </c>
+      <c r="C83" t="s">
+        <v>31</v>
+      </c>
+      <c r="D83" t="s">
+        <v>34</v>
+      </c>
+      <c r="E83" t="s">
+        <v>33</v>
+      </c>
+      <c r="F83" s="1">
+        <v>512</v>
+      </c>
+      <c r="G83" s="6" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A84" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B84" s="3">
+        <v>519977</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F84" s="1">
+        <v>512</v>
+      </c>
+      <c r="G84" s="6" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A85" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B85" s="3">
+        <v>1061</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D85" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E76" s="1" t="s">
+      <c r="E85" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F76" s="1">
+      <c r="F85" s="1">
         <v>521</v>
       </c>
-      <c r="G76" s="6" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A77" s="1" t="s">
+      <c r="G85" s="6" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A86" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B77" s="3">
+      <c r="B86" s="3">
         <v>518880</v>
       </c>
-      <c r="C77" s="1" t="s">
+      <c r="C86" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D77" s="1" t="s">
+      <c r="D86" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E77" s="1" t="s">
+      <c r="E86" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F77" s="1">
+      <c r="F86" s="1">
         <v>611</v>
       </c>
-      <c r="G77" s="6" t="s">
+      <c r="G86" s="6" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A78" s="1" t="s">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A87" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B78" s="3">
+      <c r="B87" s="3">
         <v>216</v>
       </c>
-      <c r="C78" s="1" t="s">
+      <c r="C87" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D78" s="1" t="s">
+      <c r="D87" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E78" s="1" t="s">
+      <c r="E87" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F78" s="1">
+      <c r="F87" s="1">
         <v>611</v>
       </c>
-      <c r="G78" s="6" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A79" s="1" t="s">
+      <c r="G87" s="6" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A88" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B79" s="3">
+      <c r="B88" s="3">
         <v>999979</v>
       </c>
-      <c r="C79" s="1" t="s">
+      <c r="C88" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D79" s="1" t="s">
+      <c r="D88" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E79" s="1" t="s">
+      <c r="E88" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F79" s="1">
+      <c r="F88" s="1">
         <v>612</v>
       </c>
-      <c r="G79" s="7"/>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A80" s="1" t="s">
+      <c r="G88" s="7"/>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A89" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="B80" s="3">
+      <c r="B89" s="3">
         <v>162411</v>
       </c>
-      <c r="C80" s="1" t="s">
+      <c r="C89" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D80" s="1" t="s">
+      <c r="D89" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E80" s="1" t="s">
+      <c r="E89" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F80" s="1">
+      <c r="F89" s="1">
         <v>613</v>
       </c>
-      <c r="G80" s="6" t="s">
+      <c r="G89" s="6" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A81" s="1" t="s">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A90" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B81" s="3">
+      <c r="B90" s="3">
         <v>501018</v>
       </c>
-      <c r="C81" s="1" t="s">
+      <c r="C90" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D81" s="1" t="s">
+      <c r="D90" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E81" s="1" t="s">
+      <c r="E90" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F81" s="1">
+      <c r="F90" s="1">
         <v>613</v>
       </c>
-      <c r="G81" s="6" t="s">
+      <c r="G90" s="6" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A82" s="1" t="s">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A91" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B82" s="3">
+      <c r="B91" s="3">
         <v>999988</v>
       </c>
-      <c r="C82" s="1" t="s">
+      <c r="C91" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="D82" s="1" t="s">
+      <c r="D91" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="E82" s="1" t="s">
+      <c r="E91" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F82" s="1">
+      <c r="F91" s="1">
         <v>988</v>
       </c>
-      <c r="G82" s="7"/>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A83" s="1" t="s">
+      <c r="G91" s="7"/>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A92" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B83" s="3">
+      <c r="B92" s="3">
         <v>999989</v>
       </c>
-      <c r="C83" s="1" t="s">
+      <c r="C92" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="D83" s="1" t="s">
+      <c r="D92" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="E83" s="1" t="s">
+      <c r="E92" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="F83" s="1">
+      <c r="F92" s="1">
         <v>989</v>
       </c>
-      <c r="G83" s="7"/>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A84" s="1" t="s">
+      <c r="G92" s="7"/>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A93" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B84" s="3">
+      <c r="B93" s="3">
         <v>999997</v>
       </c>
-      <c r="C84" s="1" t="s">
+      <c r="C93" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D84" s="1" t="s">
+      <c r="D93" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="E84" s="1" t="s">
+      <c r="E93" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="F84" s="1">
+      <c r="F93" s="1">
         <v>997</v>
       </c>
-      <c r="G84" s="7"/>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A85" s="1" t="s">
+      <c r="G93" s="7"/>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A94" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B85" s="3">
+      <c r="B94" s="3">
         <v>999998</v>
       </c>
-      <c r="C85" s="1" t="s">
+      <c r="C94" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D85" s="1" t="s">
+      <c r="D94" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="E85" s="1" t="s">
+      <c r="E94" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="F85" s="1">
+      <c r="F94" s="1">
         <v>998</v>
       </c>
-      <c r="G85" s="7"/>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A86" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B86" s="3">
-        <v>2086</v>
-      </c>
-      <c r="C86" s="1" t="s">
+      <c r="G94" s="7"/>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A95" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B95" s="3">
+        <v>999999</v>
+      </c>
+      <c r="C95" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D86" s="1" t="s">
+      <c r="D95" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="E86" s="1" t="s">
+      <c r="E95" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F86" s="1">
+      <c r="F95" s="1">
         <v>999</v>
       </c>
-      <c r="G86" s="7"/>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A87" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B87" s="3">
-        <v>999999</v>
-      </c>
-      <c r="C87" s="1" t="s">
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A96" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B96" s="3">
+        <v>511990</v>
+      </c>
+      <c r="C96" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D87" s="1" t="s">
+      <c r="D96" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="E87" s="1" t="s">
+      <c r="E96" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F87" s="1">
+      <c r="F96" s="1">
         <v>999</v>
       </c>
-      <c r="G87" s="7"/>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A88" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B88" s="3">
-        <v>511990</v>
-      </c>
-      <c r="C88" s="1" t="s">
+      <c r="G96" s="7"/>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A97" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B97" s="3">
+        <v>940018</v>
+      </c>
+      <c r="C97" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D88" s="1" t="s">
+      <c r="D97" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="E88" s="1" t="s">
+      <c r="E97" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F88" s="1">
+      <c r="F97" s="1">
         <v>999</v>
       </c>
-      <c r="G88" s="7"/>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A89" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B89" s="3">
-        <v>940018</v>
-      </c>
-      <c r="C89" s="1" t="s">
+      <c r="G97" s="7"/>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A98" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B98" s="3">
+        <v>511980</v>
+      </c>
+      <c r="C98" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D89" s="1" t="s">
+      <c r="D98" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="E89" s="1" t="s">
+      <c r="E98" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F89" s="1">
+      <c r="F98" s="1">
         <v>999</v>
       </c>
-      <c r="G89" s="7"/>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A90" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B90" s="3">
-        <v>511980</v>
-      </c>
-      <c r="C90" s="1" t="s">
+      <c r="G98" s="7"/>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A99" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B99" s="3">
+        <v>511880</v>
+      </c>
+      <c r="C99" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D90" s="1" t="s">
+      <c r="D99" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="E90" s="1" t="s">
+      <c r="E99" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F90" s="1">
+      <c r="F99" s="1">
         <v>999</v>
       </c>
-      <c r="G90" s="7"/>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A91" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B91" s="3">
-        <v>511880</v>
-      </c>
-      <c r="C91" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D91" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="E91" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F91" s="1">
-        <v>999</v>
-      </c>
-      <c r="G91" s="7"/>
+      <c r="G99" s="7"/>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G100" s="7"/>
     </row>
   </sheetData>
-  <sortState ref="A2:G91">
+  <sortState ref="A2:G99">
     <sortCondition ref="F34"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/scripts/src/config/资产配置分类表.xlsx
+++ b/scripts/src/config/资产配置分类表.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\finance-data\Scripts\src\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4F905D1-CFB0-4A0B-947F-AC255D967954}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BBFE452-6AC4-4707-9A02-0DE3F70E7DA6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5070" yWindow="5070" windowWidth="6210" windowHeight="13365" xr2:uid="{A2CED1EC-343A-4CFC-976C-17F1726B3D68}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{A2CED1EC-343A-4CFC-976C-17F1726B3D68}"/>
   </bookViews>
   <sheets>
     <sheet name="资产分类" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="171">
   <si>
     <t>无息外借款</t>
   </si>
@@ -607,6 +607,14 @@
     <t>长安鑫益增强混合C</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>易方达中证红利ETF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>场内</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -615,7 +623,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="000000"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -678,6 +686,13 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -701,7 +716,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -723,6 +738,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1037,10 +1053,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7002D332-7AD6-42B5-A99D-39647A47F5B6}">
-  <dimension ref="A1:G100"/>
+  <dimension ref="A1:G101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="K59" sqref="K59"/>
+    <sheetView tabSelected="1" topLeftCell="E13" workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1674,10 +1690,10 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>87</v>
+        <v>169</v>
       </c>
       <c r="B28" s="3">
-        <v>501029</v>
+        <v>515180</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>13</v>
@@ -1686,33 +1702,33 @@
         <v>86</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="F28" s="1">
-        <v>132</v>
-      </c>
-      <c r="G28" s="6" t="s">
-        <v>152</v>
+        <v>131</v>
+      </c>
+      <c r="G28" s="9" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B29" s="3">
-        <v>968</v>
+        <v>501029</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>64</v>
+        <v>86</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F29" s="1">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="G29" s="6" t="s">
         <v>152</v>
@@ -1720,10 +1736,10 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B30" s="3">
-        <v>1550</v>
+        <v>968</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>13</v>
@@ -1732,10 +1748,10 @@
         <v>64</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="F30" s="1">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G30" s="6" t="s">
         <v>152</v>
@@ -1743,10 +1759,10 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B31" s="3">
-        <v>159938</v>
+        <v>1550</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>13</v>
@@ -1761,15 +1777,15 @@
         <v>142</v>
       </c>
       <c r="G31" s="6" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B32" s="3">
-        <v>1180</v>
+        <v>159938</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>13</v>
@@ -1784,15 +1800,15 @@
         <v>142</v>
       </c>
       <c r="G32" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B33" s="3">
-        <v>512580</v>
+        <v>1180</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>13</v>
@@ -1801,21 +1817,21 @@
         <v>64</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="F33" s="1">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G33" s="6" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B34" s="3">
-        <v>1064</v>
+        <v>512580</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>13</v>
@@ -1830,15 +1846,15 @@
         <v>143</v>
       </c>
       <c r="G34" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B35" s="3">
-        <v>512980</v>
+        <v>1064</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>13</v>
@@ -1847,21 +1863,21 @@
         <v>64</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="F35" s="1">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G35" s="6" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B36" s="3">
-        <v>4752</v>
+        <v>512980</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>13</v>
@@ -1876,15 +1892,15 @@
         <v>144</v>
       </c>
       <c r="G36" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B37" s="3">
-        <v>512880</v>
+        <v>4752</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>13</v>
@@ -1893,21 +1909,21 @@
         <v>64</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="F37" s="1">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G37" s="6" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B38" s="3">
-        <v>502010</v>
+        <v>512880</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>13</v>
@@ -1922,15 +1938,15 @@
         <v>145</v>
       </c>
       <c r="G38" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>155</v>
+        <v>71</v>
       </c>
       <c r="B39" s="3">
-        <v>1594</v>
+        <v>502010</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>13</v>
@@ -1939,10 +1955,10 @@
         <v>64</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>156</v>
+        <v>70</v>
       </c>
       <c r="F39" s="1">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G39" s="6" t="s">
         <v>152</v>
@@ -1950,10 +1966,10 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>69</v>
+        <v>155</v>
       </c>
       <c r="B40" s="3">
-        <v>1469</v>
+        <v>1594</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>13</v>
@@ -1962,10 +1978,10 @@
         <v>64</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>68</v>
+        <v>156</v>
       </c>
       <c r="F40" s="1">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G40" s="6" t="s">
         <v>152</v>
@@ -1973,10 +1989,10 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B41" s="3">
-        <v>110022</v>
+        <v>1469</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>13</v>
@@ -1985,10 +2001,10 @@
         <v>64</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F41" s="1">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G41" s="6" t="s">
         <v>152</v>
@@ -1996,10 +2012,10 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B42" s="3">
-        <v>161725</v>
+        <v>110022</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>13</v>
@@ -2019,31 +2035,33 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="B43" s="3">
-        <v>600861</v>
+        <v>161725</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>12</v>
+        <v>64</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>12</v>
+        <v>66</v>
       </c>
       <c r="F43" s="1">
-        <v>151</v>
-      </c>
-      <c r="G43" s="7"/>
+        <v>148</v>
+      </c>
+      <c r="G43" s="6" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B44" s="3">
-        <v>836</v>
+        <v>600861</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>13</v>
@@ -2061,10 +2079,10 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B45" s="3">
-        <v>600879</v>
+        <v>836</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>13</v>
@@ -2082,10 +2100,10 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B46" s="3">
-        <v>17</v>
+        <v>600879</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>13</v>
@@ -2103,10 +2121,10 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B47" s="3">
-        <v>601939</v>
+        <v>17</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>13</v>
@@ -2124,10 +2142,10 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B48" s="3">
-        <v>428</v>
+        <v>601939</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>13</v>
@@ -2145,10 +2163,10 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B49" s="3">
-        <v>600857</v>
+        <v>428</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>13</v>
@@ -2166,33 +2184,31 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>63</v>
+        <v>14</v>
       </c>
       <c r="B50" s="3">
-        <v>71</v>
+        <v>600857</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>57</v>
+        <v>12</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="F50" s="1">
-        <v>211</v>
-      </c>
-      <c r="G50" s="6" t="s">
-        <v>152</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="G50" s="7"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B51" s="3">
-        <v>159920</v>
+        <v>71</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>54</v>
@@ -2207,15 +2223,15 @@
         <v>211</v>
       </c>
       <c r="G51" s="6" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B52" s="3">
-        <v>510900</v>
+        <v>159920</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>54</v>
@@ -2224,10 +2240,10 @@
         <v>57</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F52" s="1">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G52" s="6" t="s">
         <v>151</v>
@@ -2235,10 +2251,10 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B53" s="3">
-        <v>501021</v>
+        <v>510900</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>54</v>
@@ -2247,33 +2263,33 @@
         <v>57</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="F53" s="1">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G53" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B54" s="3">
-        <v>164906</v>
+        <v>501021</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="F54" s="1">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="G54" s="6" t="s">
         <v>152</v>
@@ -2281,10 +2297,10 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>161</v>
+        <v>55</v>
       </c>
       <c r="B55" s="3">
-        <v>6327</v>
+        <v>164906</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>54</v>
@@ -2304,22 +2320,22 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>51</v>
+        <v>161</v>
       </c>
       <c r="B56" s="3">
-        <v>179</v>
+        <v>6327</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="F56" s="1">
-        <v>314</v>
+        <v>221</v>
       </c>
       <c r="G56" s="6" t="s">
         <v>152</v>
@@ -2327,45 +2343,45 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B57" s="3">
-        <v>614</v>
+        <v>179</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D57" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F57" s="1">
+        <v>314</v>
+      </c>
+      <c r="G57" s="6" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A58" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B58" s="3">
+        <v>614</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D58" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E57" s="1" t="s">
+      <c r="E58" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F57" s="1">
+      <c r="F58" s="1">
         <v>321</v>
-      </c>
-      <c r="G57" s="6" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
-        <v>141</v>
-      </c>
-      <c r="B58" s="3">
-        <v>519700</v>
-      </c>
-      <c r="C58" t="s">
-        <v>157</v>
-      </c>
-      <c r="D58" t="s">
-        <v>147</v>
-      </c>
-      <c r="E58" t="s">
-        <v>148</v>
-      </c>
-      <c r="F58">
-        <v>411</v>
       </c>
       <c r="G58" s="6" t="s">
         <v>152</v>
@@ -2373,10 +2389,10 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>158</v>
+        <v>141</v>
       </c>
       <c r="B59" s="3">
-        <v>519738</v>
+        <v>519700</v>
       </c>
       <c r="C59" t="s">
         <v>157</v>
@@ -2385,7 +2401,7 @@
         <v>147</v>
       </c>
       <c r="E59" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F59">
         <v>411</v>
@@ -2396,10 +2412,10 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c r="B60" s="3">
-        <v>519752</v>
+        <v>519738</v>
       </c>
       <c r="C60" t="s">
         <v>157</v>
@@ -2411,7 +2427,7 @@
         <v>149</v>
       </c>
       <c r="F60">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="G60" s="6" t="s">
         <v>152</v>
@@ -2419,10 +2435,10 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B61" s="3">
-        <v>519755</v>
+        <v>519752</v>
       </c>
       <c r="C61" t="s">
         <v>157</v>
@@ -2442,10 +2458,10 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>164</v>
+        <v>145</v>
       </c>
       <c r="B62" s="3">
-        <v>485011</v>
+        <v>519755</v>
       </c>
       <c r="C62" t="s">
         <v>157</v>
@@ -2465,10 +2481,10 @@
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B63" s="3">
-        <v>1338</v>
+        <v>485011</v>
       </c>
       <c r="C63" t="s">
         <v>157</v>
@@ -2488,10 +2504,10 @@
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B64" s="3">
-        <v>7749</v>
+        <v>1338</v>
       </c>
       <c r="C64" t="s">
         <v>157</v>
@@ -2511,10 +2527,10 @@
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B65" s="3">
-        <v>6060</v>
+        <v>7749</v>
       </c>
       <c r="C65" t="s">
         <v>157</v>
@@ -2534,10 +2550,10 @@
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B66" s="3">
-        <v>2147</v>
+        <v>6060</v>
       </c>
       <c r="C66" t="s">
         <v>157</v>
@@ -2556,23 +2572,23 @@
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A67" s="1" t="s">
-        <v>44</v>
+      <c r="A67" t="s">
+        <v>168</v>
       </c>
       <c r="B67" s="3">
-        <v>3376</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D67" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E67" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F67" s="1">
-        <v>511</v>
+        <v>2147</v>
+      </c>
+      <c r="C67" t="s">
+        <v>157</v>
+      </c>
+      <c r="D67" t="s">
+        <v>147</v>
+      </c>
+      <c r="E67" t="s">
+        <v>149</v>
+      </c>
+      <c r="F67">
+        <v>412</v>
       </c>
       <c r="G67" s="6" t="s">
         <v>152</v>
@@ -2580,10 +2596,10 @@
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>162</v>
+        <v>44</v>
       </c>
       <c r="B68" s="3">
-        <v>519153</v>
+        <v>3376</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>31</v>
@@ -2603,10 +2619,10 @@
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>11</v>
+        <v>162</v>
       </c>
       <c r="B69" s="3">
-        <v>2086</v>
+        <v>519153</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>31</v>
@@ -2626,10 +2642,10 @@
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
-        <v>163</v>
+        <v>11</v>
       </c>
       <c r="B70" s="3">
-        <v>6320</v>
+        <v>2086</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>31</v>
@@ -2649,10 +2665,10 @@
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>43</v>
+        <v>163</v>
       </c>
       <c r="B71" s="3">
-        <v>204001</v>
+        <v>6320</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>31</v>
@@ -2666,14 +2682,16 @@
       <c r="F71" s="1">
         <v>511</v>
       </c>
-      <c r="G71" s="6"/>
+      <c r="G71" s="6" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B72" s="3">
-        <v>204007</v>
+        <v>204001</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>31</v>
@@ -2691,10 +2709,10 @@
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B73" s="3">
-        <v>131810</v>
+        <v>204007</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>31</v>
@@ -2712,10 +2730,10 @@
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B74" s="3">
-        <v>131800</v>
+        <v>131810</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>31</v>
@@ -2733,10 +2751,10 @@
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B75" s="3">
-        <v>511010</v>
+        <v>131800</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>31</v>
@@ -2750,16 +2768,14 @@
       <c r="F75" s="1">
         <v>511</v>
       </c>
-      <c r="G75" s="6" t="s">
-        <v>151</v>
-      </c>
+      <c r="G75" s="6"/>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
-        <v>160</v>
+        <v>39</v>
       </c>
       <c r="B76" s="3">
-        <v>519776</v>
+        <v>511010</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>31</v>
@@ -2774,27 +2790,27 @@
         <v>511</v>
       </c>
       <c r="G76" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A77" t="s">
-        <v>140</v>
+      <c r="A77" s="1" t="s">
+        <v>160</v>
       </c>
       <c r="B77" s="3">
-        <v>6793</v>
-      </c>
-      <c r="C77" t="s">
+        <v>519776</v>
+      </c>
+      <c r="C77" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D77" t="s">
+      <c r="D77" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E77" t="s">
-        <v>33</v>
+      <c r="E77" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="F77" s="1">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="G77" s="6" t="s">
         <v>152</v>
@@ -2802,10 +2818,10 @@
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B78" s="3">
-        <v>519718</v>
+        <v>6793</v>
       </c>
       <c r="C78" t="s">
         <v>31</v>
@@ -2825,10 +2841,10 @@
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B79" s="3">
-        <v>519723</v>
+        <v>519718</v>
       </c>
       <c r="C79" t="s">
         <v>31</v>
@@ -2848,10 +2864,10 @@
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>146</v>
-      </c>
-      <c r="B80">
-        <v>519776</v>
+        <v>143</v>
+      </c>
+      <c r="B80" s="3">
+        <v>519723</v>
       </c>
       <c r="C80" t="s">
         <v>31</v>
@@ -2870,19 +2886,19 @@
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A81" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B81" s="3">
-        <v>340001</v>
-      </c>
-      <c r="C81" s="1" t="s">
+      <c r="A81" t="s">
+        <v>146</v>
+      </c>
+      <c r="B81">
+        <v>519776</v>
+      </c>
+      <c r="C81" t="s">
         <v>31</v>
       </c>
-      <c r="D81" s="1" t="s">
+      <c r="D81" t="s">
         <v>34</v>
       </c>
-      <c r="E81" s="1" t="s">
+      <c r="E81" t="s">
         <v>33</v>
       </c>
       <c r="F81" s="1">
@@ -2894,10 +2910,10 @@
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B82" s="3">
-        <v>110027</v>
+        <v>340001</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>31</v>
@@ -2917,18 +2933,18 @@
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
-        <v>159</v>
+        <v>36</v>
       </c>
       <c r="B83" s="3">
-        <v>164902</v>
-      </c>
-      <c r="C83" t="s">
+        <v>110027</v>
+      </c>
+      <c r="C83" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D83" t="s">
+      <c r="D83" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E83" t="s">
+      <c r="E83" s="1" t="s">
         <v>33</v>
       </c>
       <c r="F83" s="1">
@@ -2940,18 +2956,18 @@
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
-        <v>35</v>
+        <v>159</v>
       </c>
       <c r="B84" s="3">
-        <v>519977</v>
-      </c>
-      <c r="C84" s="1" t="s">
+        <v>164902</v>
+      </c>
+      <c r="C84" t="s">
         <v>31</v>
       </c>
-      <c r="D84" s="1" t="s">
+      <c r="D84" t="s">
         <v>34</v>
       </c>
-      <c r="E84" s="1" t="s">
+      <c r="E84" t="s">
         <v>33</v>
       </c>
       <c r="F84" s="1">
@@ -2963,22 +2979,22 @@
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B85" s="3">
-        <v>1061</v>
+        <v>519977</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>31</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F85" s="1">
-        <v>521</v>
+        <v>512</v>
       </c>
       <c r="G85" s="6" t="s">
         <v>152</v>
@@ -2986,33 +3002,33 @@
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B86" s="3">
-        <v>518880</v>
+        <v>1061</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F86" s="1">
-        <v>611</v>
+        <v>521</v>
       </c>
       <c r="G86" s="6" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B87" s="3">
-        <v>216</v>
+        <v>518880</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>22</v>
@@ -3027,15 +3043,15 @@
         <v>611</v>
       </c>
       <c r="G87" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B88" s="3">
-        <v>999979</v>
+        <v>216</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>22</v>
@@ -3044,19 +3060,21 @@
         <v>22</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F88" s="1">
-        <v>612</v>
-      </c>
-      <c r="G88" s="7"/>
+        <v>611</v>
+      </c>
+      <c r="G88" s="6" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>154</v>
+        <v>25</v>
       </c>
       <c r="B89" s="3">
-        <v>162411</v>
+        <v>999979</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>22</v>
@@ -3065,21 +3083,19 @@
         <v>22</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F89" s="1">
-        <v>613</v>
-      </c>
-      <c r="G89" s="6" t="s">
-        <v>151</v>
-      </c>
+        <v>612</v>
+      </c>
+      <c r="G89" s="7"/>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
-        <v>23</v>
+        <v>154</v>
       </c>
       <c r="B90" s="3">
-        <v>501018</v>
+        <v>162411</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>22</v>
@@ -3099,114 +3115,117 @@
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="B91" s="3">
-        <v>999988</v>
+        <v>501018</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>135</v>
+        <v>22</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>137</v>
+        <v>22</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="F91" s="1">
-        <v>988</v>
-      </c>
-      <c r="G91" s="7"/>
+        <v>613</v>
+      </c>
+      <c r="G91" s="6" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B92" s="3">
-        <v>999989</v>
+        <v>999988</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>135</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>138</v>
+        <v>0</v>
       </c>
       <c r="F92" s="1">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="G92" s="7"/>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B93" s="3">
-        <v>999997</v>
+        <v>999989</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>5</v>
+        <v>135</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="F93" s="1">
-        <v>997</v>
+        <v>989</v>
       </c>
       <c r="G93" s="7"/>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B94" s="3">
-        <v>999998</v>
+        <v>999997</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F94" s="1">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="G94" s="7"/>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B95" s="3">
-        <v>999999</v>
+        <v>999998</v>
       </c>
       <c r="C95" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>4</v>
+        <v>134</v>
       </c>
       <c r="F95" s="1">
-        <v>999</v>
-      </c>
+        <v>998</v>
+      </c>
+      <c r="G95" s="7"/>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B96" s="3">
-        <v>511990</v>
+        <v>999999</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>5</v>
@@ -3220,14 +3239,13 @@
       <c r="F96" s="1">
         <v>999</v>
       </c>
-      <c r="G96" s="7"/>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B97" s="3">
-        <v>940018</v>
+        <v>511990</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>5</v>
@@ -3245,10 +3263,10 @@
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B98" s="3">
-        <v>511980</v>
+        <v>940018</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>5</v>
@@ -3266,10 +3284,10 @@
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B99" s="3">
-        <v>511880</v>
+        <v>511980</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>5</v>
@@ -3286,11 +3304,32 @@
       <c r="G99" s="7"/>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A100" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B100" s="3">
+        <v>511880</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F100" s="1">
+        <v>999</v>
+      </c>
       <c r="G100" s="7"/>
     </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G101" s="7"/>
+    </row>
   </sheetData>
-  <sortState ref="A2:G99">
-    <sortCondition ref="F34"/>
+  <sortState ref="A2:G100">
+    <sortCondition ref="F35"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/scripts/src/config/资产配置分类表.xlsx
+++ b/scripts/src/config/资产配置分类表.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20356"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\finance-data\Scripts\src\config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\finance-data\scripts\src\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BBFE452-6AC4-4707-9A02-0DE3F70E7DA6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{483FF570-470C-4350-98D4-047F3A0F1A19}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{A2CED1EC-343A-4CFC-976C-17F1726B3D68}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="173">
   <si>
     <t>无息外借款</t>
   </si>
@@ -613,6 +613,14 @@
   </si>
   <si>
     <t>场内</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>信息科技</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>易方达标普信息科技指数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1053,21 +1061,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7002D332-7AD6-42B5-A99D-39647A47F5B6}">
-  <dimension ref="A1:G101"/>
+  <dimension ref="A1:G102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E13" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="K62" sqref="K62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="15" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>130</v>
       </c>
@@ -1090,7 +1098,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>125</v>
       </c>
@@ -1113,7 +1121,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>124</v>
       </c>
@@ -1136,7 +1144,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>122</v>
       </c>
@@ -1159,7 +1167,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>120</v>
       </c>
@@ -1182,7 +1190,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>119</v>
       </c>
@@ -1205,7 +1213,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>118</v>
       </c>
@@ -1228,7 +1236,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>116</v>
       </c>
@@ -1251,7 +1259,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>115</v>
       </c>
@@ -1274,7 +1282,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>113</v>
       </c>
@@ -1297,7 +1305,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>111</v>
       </c>
@@ -1320,7 +1328,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>108</v>
       </c>
@@ -1343,7 +1351,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>107</v>
       </c>
@@ -1366,7 +1374,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>106</v>
       </c>
@@ -1389,7 +1397,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>105</v>
       </c>
@@ -1412,7 +1420,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>104</v>
       </c>
@@ -1435,7 +1443,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>103</v>
       </c>
@@ -1458,7 +1466,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>102</v>
       </c>
@@ -1481,7 +1489,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>100</v>
       </c>
@@ -1504,7 +1512,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>98</v>
       </c>
@@ -1527,7 +1535,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>97</v>
       </c>
@@ -1550,7 +1558,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>96</v>
       </c>
@@ -1573,7 +1581,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>91</v>
       </c>
@@ -1596,7 +1604,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>94</v>
       </c>
@@ -1619,7 +1627,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>93</v>
       </c>
@@ -1642,7 +1650,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>90</v>
       </c>
@@ -1665,7 +1673,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>89</v>
       </c>
@@ -1688,7 +1696,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>169</v>
       </c>
@@ -1711,7 +1719,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>87</v>
       </c>
@@ -1734,7 +1742,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>84</v>
       </c>
@@ -1757,7 +1765,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>82</v>
       </c>
@@ -1780,7 +1788,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>81</v>
       </c>
@@ -1803,7 +1811,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>80</v>
       </c>
@@ -1826,7 +1834,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>78</v>
       </c>
@@ -1849,7 +1857,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>77</v>
       </c>
@@ -1872,7 +1880,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>75</v>
       </c>
@@ -1895,7 +1903,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>74</v>
       </c>
@@ -1918,7 +1926,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>72</v>
       </c>
@@ -1941,7 +1949,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>71</v>
       </c>
@@ -1964,7 +1972,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>155</v>
       </c>
@@ -1987,7 +1995,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>69</v>
       </c>
@@ -2010,7 +2018,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>67</v>
       </c>
@@ -2033,7 +2041,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>65</v>
       </c>
@@ -2056,7 +2064,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>20</v>
       </c>
@@ -2077,7 +2085,7 @@
       </c>
       <c r="G44" s="7"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>19</v>
       </c>
@@ -2098,7 +2106,7 @@
       </c>
       <c r="G45" s="7"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>18</v>
       </c>
@@ -2119,7 +2127,7 @@
       </c>
       <c r="G46" s="7"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>17</v>
       </c>
@@ -2140,7 +2148,7 @@
       </c>
       <c r="G47" s="7"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>16</v>
       </c>
@@ -2161,7 +2169,7 @@
       </c>
       <c r="G48" s="7"/>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>15</v>
       </c>
@@ -2182,7 +2190,7 @@
       </c>
       <c r="G49" s="7"/>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>14</v>
       </c>
@@ -2203,7 +2211,7 @@
       </c>
       <c r="G50" s="7"/>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>63</v>
       </c>
@@ -2226,7 +2234,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>62</v>
       </c>
@@ -2249,7 +2257,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>60</v>
       </c>
@@ -2272,7 +2280,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>58</v>
       </c>
@@ -2295,7 +2303,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>55</v>
       </c>
@@ -2318,7 +2326,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>161</v>
       </c>
@@ -2341,7 +2349,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>51</v>
       </c>
@@ -2364,58 +2372,58 @@
         <v>152</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>48</v>
+        <v>172</v>
       </c>
       <c r="B58" s="3">
-        <v>614</v>
+        <v>161128</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D58" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="F58" s="1">
+        <v>315</v>
+      </c>
+      <c r="G58" s="6" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B59" s="3">
+        <v>614</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D59" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E58" s="1" t="s">
+      <c r="E59" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F58" s="1">
+      <c r="F59" s="1">
         <v>321</v>
       </c>
-      <c r="G58" s="6" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
+      <c r="G59" s="6" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
         <v>141</v>
       </c>
-      <c r="B59" s="3">
+      <c r="B60" s="3">
         <v>519700</v>
-      </c>
-      <c r="C59" t="s">
-        <v>157</v>
-      </c>
-      <c r="D59" t="s">
-        <v>147</v>
-      </c>
-      <c r="E59" t="s">
-        <v>148</v>
-      </c>
-      <c r="F59">
-        <v>411</v>
-      </c>
-      <c r="G59" s="6" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
-        <v>158</v>
-      </c>
-      <c r="B60" s="3">
-        <v>519738</v>
       </c>
       <c r="C60" t="s">
         <v>157</v>
@@ -2424,7 +2432,7 @@
         <v>147</v>
       </c>
       <c r="E60" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F60">
         <v>411</v>
@@ -2433,12 +2441,12 @@
         <v>152</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c r="B61" s="3">
-        <v>519752</v>
+        <v>519738</v>
       </c>
       <c r="C61" t="s">
         <v>157</v>
@@ -2450,18 +2458,18 @@
         <v>149</v>
       </c>
       <c r="F61">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="G61" s="6" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B62" s="3">
-        <v>519755</v>
+        <v>519752</v>
       </c>
       <c r="C62" t="s">
         <v>157</v>
@@ -2479,12 +2487,12 @@
         <v>152</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>164</v>
+        <v>145</v>
       </c>
       <c r="B63" s="3">
-        <v>485011</v>
+        <v>519755</v>
       </c>
       <c r="C63" t="s">
         <v>157</v>
@@ -2502,12 +2510,12 @@
         <v>152</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B64" s="3">
-        <v>1338</v>
+        <v>485011</v>
       </c>
       <c r="C64" t="s">
         <v>157</v>
@@ -2525,12 +2533,12 @@
         <v>152</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B65" s="3">
-        <v>7749</v>
+        <v>1338</v>
       </c>
       <c r="C65" t="s">
         <v>157</v>
@@ -2548,12 +2556,12 @@
         <v>152</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B66" s="3">
-        <v>6060</v>
+        <v>7749</v>
       </c>
       <c r="C66" t="s">
         <v>157</v>
@@ -2571,12 +2579,12 @@
         <v>152</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B67" s="3">
-        <v>2147</v>
+        <v>6060</v>
       </c>
       <c r="C67" t="s">
         <v>157</v>
@@ -2594,35 +2602,35 @@
         <v>152</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A68" s="1" t="s">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>168</v>
+      </c>
+      <c r="B68" s="3">
+        <v>2147</v>
+      </c>
+      <c r="C68" t="s">
+        <v>157</v>
+      </c>
+      <c r="D68" t="s">
+        <v>147</v>
+      </c>
+      <c r="E68" t="s">
+        <v>149</v>
+      </c>
+      <c r="F68">
+        <v>412</v>
+      </c>
+      <c r="G68" s="6" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B68" s="3">
+      <c r="B69" s="3">
         <v>3376</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D68" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E68" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F68" s="1">
-        <v>511</v>
-      </c>
-      <c r="G68" s="6" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A69" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="B69" s="3">
-        <v>519153</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>31</v>
@@ -2640,12 +2648,12 @@
         <v>152</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>11</v>
+        <v>162</v>
       </c>
       <c r="B70" s="3">
-        <v>2086</v>
+        <v>519153</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>31</v>
@@ -2663,12 +2671,12 @@
         <v>152</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>163</v>
+        <v>11</v>
       </c>
       <c r="B71" s="3">
-        <v>6320</v>
+        <v>2086</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>31</v>
@@ -2686,12 +2694,12 @@
         <v>152</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>43</v>
+        <v>163</v>
       </c>
       <c r="B72" s="3">
-        <v>204001</v>
+        <v>6320</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>31</v>
@@ -2705,14 +2713,16 @@
       <c r="F72" s="1">
         <v>511</v>
       </c>
-      <c r="G72" s="6"/>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G72" s="6" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B73" s="3">
-        <v>204007</v>
+        <v>204001</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>31</v>
@@ -2728,12 +2738,12 @@
       </c>
       <c r="G73" s="6"/>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B74" s="3">
-        <v>131810</v>
+        <v>204007</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>31</v>
@@ -2749,12 +2759,12 @@
       </c>
       <c r="G74" s="6"/>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B75" s="3">
-        <v>131800</v>
+        <v>131810</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>31</v>
@@ -2770,12 +2780,12 @@
       </c>
       <c r="G75" s="6"/>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B76" s="3">
-        <v>511010</v>
+        <v>131800</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>31</v>
@@ -2789,16 +2799,14 @@
       <c r="F76" s="1">
         <v>511</v>
       </c>
-      <c r="G76" s="6" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G76" s="6"/>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>160</v>
+        <v>39</v>
       </c>
       <c r="B77" s="3">
-        <v>519776</v>
+        <v>511010</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>31</v>
@@ -2813,38 +2821,38 @@
         <v>511</v>
       </c>
       <c r="G77" s="6" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A78" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B78" s="3">
+        <v>519776</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F78" s="1">
+        <v>511</v>
+      </c>
+      <c r="G78" s="6" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
         <v>140</v>
       </c>
-      <c r="B78" s="3">
+      <c r="B79" s="3">
         <v>6793</v>
-      </c>
-      <c r="C78" t="s">
-        <v>31</v>
-      </c>
-      <c r="D78" t="s">
-        <v>34</v>
-      </c>
-      <c r="E78" t="s">
-        <v>33</v>
-      </c>
-      <c r="F78" s="1">
-        <v>512</v>
-      </c>
-      <c r="G78" s="6" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A79" t="s">
-        <v>142</v>
-      </c>
-      <c r="B79" s="3">
-        <v>519718</v>
       </c>
       <c r="C79" t="s">
         <v>31</v>
@@ -2862,12 +2870,12 @@
         <v>152</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B80" s="3">
-        <v>519723</v>
+        <v>519718</v>
       </c>
       <c r="C80" t="s">
         <v>31</v>
@@ -2885,12 +2893,12 @@
         <v>152</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>146</v>
-      </c>
-      <c r="B81">
-        <v>519776</v>
+        <v>143</v>
+      </c>
+      <c r="B81" s="3">
+        <v>519723</v>
       </c>
       <c r="C81" t="s">
         <v>31</v>
@@ -2908,20 +2916,20 @@
         <v>152</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A82" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B82" s="3">
-        <v>340001</v>
-      </c>
-      <c r="C82" s="1" t="s">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>146</v>
+      </c>
+      <c r="B82">
+        <v>519776</v>
+      </c>
+      <c r="C82" t="s">
         <v>31</v>
       </c>
-      <c r="D82" s="1" t="s">
+      <c r="D82" t="s">
         <v>34</v>
       </c>
-      <c r="E82" s="1" t="s">
+      <c r="E82" t="s">
         <v>33</v>
       </c>
       <c r="F82" s="1">
@@ -2931,12 +2939,12 @@
         <v>152</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B83" s="3">
-        <v>110027</v>
+        <v>340001</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>31</v>
@@ -2954,20 +2962,20 @@
         <v>152</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>159</v>
+        <v>36</v>
       </c>
       <c r="B84" s="3">
-        <v>164902</v>
-      </c>
-      <c r="C84" t="s">
+        <v>110027</v>
+      </c>
+      <c r="C84" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D84" t="s">
+      <c r="D84" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E84" t="s">
+      <c r="E84" s="1" t="s">
         <v>33</v>
       </c>
       <c r="F84" s="1">
@@ -2977,20 +2985,20 @@
         <v>152</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>35</v>
+        <v>159</v>
       </c>
       <c r="B85" s="3">
-        <v>519977</v>
-      </c>
-      <c r="C85" s="1" t="s">
+        <v>164902</v>
+      </c>
+      <c r="C85" t="s">
         <v>31</v>
       </c>
-      <c r="D85" s="1" t="s">
+      <c r="D85" t="s">
         <v>34</v>
       </c>
-      <c r="E85" s="1" t="s">
+      <c r="E85" t="s">
         <v>33</v>
       </c>
       <c r="F85" s="1">
@@ -3000,58 +3008,58 @@
         <v>152</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B86" s="3">
-        <v>1061</v>
+        <v>519977</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>31</v>
       </c>
       <c r="D86" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F86" s="1">
+        <v>512</v>
+      </c>
+      <c r="G86" s="6" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A87" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B87" s="3">
+        <v>1061</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D87" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E86" s="1" t="s">
+      <c r="E87" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F86" s="1">
+      <c r="F87" s="1">
         <v>521</v>
       </c>
-      <c r="G86" s="6" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A87" s="1" t="s">
+      <c r="G87" s="6" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A88" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B87" s="3">
+      <c r="B88" s="3">
         <v>518880</v>
-      </c>
-      <c r="C87" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D87" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E87" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F87" s="1">
-        <v>611</v>
-      </c>
-      <c r="G87" s="6" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A88" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B88" s="3">
-        <v>216</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>22</v>
@@ -3066,15 +3074,15 @@
         <v>611</v>
       </c>
       <c r="G88" s="6" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B89" s="3">
-        <v>999979</v>
+        <v>216</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>22</v>
@@ -3083,19 +3091,21 @@
         <v>22</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F89" s="1">
-        <v>612</v>
-      </c>
-      <c r="G89" s="7"/>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
+        <v>611</v>
+      </c>
+      <c r="G89" s="6" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>154</v>
+        <v>25</v>
       </c>
       <c r="B90" s="3">
-        <v>162411</v>
+        <v>999979</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>22</v>
@@ -3104,21 +3114,19 @@
         <v>22</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F90" s="1">
-        <v>613</v>
-      </c>
-      <c r="G90" s="6" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
+        <v>612</v>
+      </c>
+      <c r="G90" s="7"/>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>23</v>
+        <v>154</v>
       </c>
       <c r="B91" s="3">
-        <v>501018</v>
+        <v>162411</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>22</v>
@@ -3136,116 +3144,119 @@
         <v>151</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B92" s="3">
+        <v>501018</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F92" s="1">
+        <v>613</v>
+      </c>
+      <c r="G92" s="6" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A93" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B92" s="3">
+      <c r="B93" s="3">
         <v>999988</v>
-      </c>
-      <c r="C92" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="D92" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="E92" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F92" s="1">
-        <v>988</v>
-      </c>
-      <c r="G92" s="7"/>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A93" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B93" s="3">
-        <v>999989</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>135</v>
       </c>
       <c r="D93" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F93" s="1">
+        <v>988</v>
+      </c>
+      <c r="G93" s="7"/>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A94" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B94" s="3">
+        <v>999989</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D94" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="E93" s="1" t="s">
+      <c r="E94" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="F93" s="1">
+      <c r="F94" s="1">
         <v>989</v>
       </c>
-      <c r="G93" s="7"/>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A94" s="1" t="s">
+      <c r="G94" s="7"/>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A95" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B94" s="3">
+      <c r="B95" s="3">
         <v>999997</v>
-      </c>
-      <c r="C94" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D94" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="E94" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="F94" s="1">
-        <v>997</v>
-      </c>
-      <c r="G94" s="7"/>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A95" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B95" s="3">
-        <v>999998</v>
       </c>
       <c r="C95" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F95" s="1">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="G95" s="7"/>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B96" s="3">
-        <v>999999</v>
+        <v>999998</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>4</v>
+        <v>134</v>
       </c>
       <c r="F96" s="1">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
+        <v>998</v>
+      </c>
+      <c r="G96" s="7"/>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B97" s="3">
-        <v>511990</v>
+        <v>999999</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>5</v>
@@ -3259,14 +3270,13 @@
       <c r="F97" s="1">
         <v>999</v>
       </c>
-      <c r="G97" s="7"/>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B98" s="3">
-        <v>940018</v>
+        <v>511990</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>5</v>
@@ -3282,12 +3292,12 @@
       </c>
       <c r="G98" s="7"/>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B99" s="3">
-        <v>511980</v>
+        <v>940018</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>5</v>
@@ -3303,12 +3313,12 @@
       </c>
       <c r="G99" s="7"/>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B100" s="3">
-        <v>511880</v>
+        <v>511980</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>5</v>
@@ -3324,11 +3334,32 @@
       </c>
       <c r="G100" s="7"/>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A101" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B101" s="3">
+        <v>511880</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F101" s="1">
+        <v>999</v>
+      </c>
       <c r="G101" s="7"/>
     </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G102" s="7"/>
+    </row>
   </sheetData>
-  <sortState ref="A2:G100">
+  <sortState ref="A2:G101">
     <sortCondition ref="F35"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/scripts/src/config/资产配置分类表.xlsx
+++ b/scripts/src/config/资产配置分类表.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20356"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\finance-data\scripts\src\config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\finance-data\Scripts\src\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{483FF570-470C-4350-98D4-047F3A0F1A19}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{994C6967-E1B8-4855-8629-2B5334F6C337}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{A2CED1EC-343A-4CFC-976C-17F1726B3D68}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="184">
   <si>
     <t>无息外借款</t>
   </si>
@@ -621,6 +621,50 @@
   </si>
   <si>
     <t>易方达标普信息科技指数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>华安标普石油指数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日经ETF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日经225</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>博时标普500ETF联接A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标普500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>纳斯达克</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>华安纳斯达克100指数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>东方红中国优势混合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>南方宝元债券C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广发趋势优选混合C</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1061,21 +1105,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7002D332-7AD6-42B5-A99D-39647A47F5B6}">
-  <dimension ref="A1:G102"/>
+  <dimension ref="A1:G109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="K62" sqref="K62"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B66" sqref="B66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>130</v>
       </c>
@@ -1098,7 +1142,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>125</v>
       </c>
@@ -1121,7 +1165,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>124</v>
       </c>
@@ -1144,7 +1188,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>122</v>
       </c>
@@ -1167,7 +1211,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>120</v>
       </c>
@@ -1190,7 +1234,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>119</v>
       </c>
@@ -1213,7 +1257,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>118</v>
       </c>
@@ -1236,7 +1280,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>116</v>
       </c>
@@ -1259,7 +1303,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>115</v>
       </c>
@@ -1282,7 +1326,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>113</v>
       </c>
@@ -1305,7 +1349,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>111</v>
       </c>
@@ -1328,7 +1372,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>108</v>
       </c>
@@ -1351,7 +1395,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>107</v>
       </c>
@@ -1374,7 +1418,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>106</v>
       </c>
@@ -1397,7 +1441,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>105</v>
       </c>
@@ -1420,7 +1464,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>104</v>
       </c>
@@ -1443,7 +1487,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>103</v>
       </c>
@@ -1466,7 +1510,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>102</v>
       </c>
@@ -1489,7 +1533,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>100</v>
       </c>
@@ -1512,7 +1556,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>98</v>
       </c>
@@ -1535,7 +1579,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>97</v>
       </c>
@@ -1558,7 +1602,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>96</v>
       </c>
@@ -1581,7 +1625,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>91</v>
       </c>
@@ -1604,7 +1648,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>94</v>
       </c>
@@ -1627,7 +1671,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>93</v>
       </c>
@@ -1650,7 +1694,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>90</v>
       </c>
@@ -1673,7 +1717,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>89</v>
       </c>
@@ -1696,7 +1740,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>169</v>
       </c>
@@ -1719,7 +1763,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>87</v>
       </c>
@@ -1742,7 +1786,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>84</v>
       </c>
@@ -1765,7 +1809,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>82</v>
       </c>
@@ -1788,7 +1832,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>81</v>
       </c>
@@ -1811,7 +1855,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>80</v>
       </c>
@@ -1834,7 +1878,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>78</v>
       </c>
@@ -1857,7 +1901,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>77</v>
       </c>
@@ -1880,7 +1924,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>75</v>
       </c>
@@ -1903,7 +1947,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>74</v>
       </c>
@@ -1926,7 +1970,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>72</v>
       </c>
@@ -1949,7 +1993,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>71</v>
       </c>
@@ -1972,7 +2016,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>155</v>
       </c>
@@ -1995,7 +2039,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>69</v>
       </c>
@@ -2018,7 +2062,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>67</v>
       </c>
@@ -2041,7 +2085,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>65</v>
       </c>
@@ -2064,7 +2108,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>20</v>
       </c>
@@ -2085,7 +2129,7 @@
       </c>
       <c r="G44" s="7"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>19</v>
       </c>
@@ -2106,7 +2150,7 @@
       </c>
       <c r="G45" s="7"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>18</v>
       </c>
@@ -2127,7 +2171,7 @@
       </c>
       <c r="G46" s="7"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>17</v>
       </c>
@@ -2148,7 +2192,7 @@
       </c>
       <c r="G47" s="7"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>16</v>
       </c>
@@ -2169,7 +2213,7 @@
       </c>
       <c r="G48" s="7"/>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>15</v>
       </c>
@@ -2190,7 +2234,7 @@
       </c>
       <c r="G49" s="7"/>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>14</v>
       </c>
@@ -2211,7 +2255,7 @@
       </c>
       <c r="G50" s="7"/>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>63</v>
       </c>
@@ -2234,7 +2278,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>62</v>
       </c>
@@ -2257,7 +2301,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>60</v>
       </c>
@@ -2280,7 +2324,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>58</v>
       </c>
@@ -2303,7 +2347,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>55</v>
       </c>
@@ -2326,7 +2370,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>161</v>
       </c>
@@ -2349,12 +2393,12 @@
         <v>152</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>51</v>
+        <v>180</v>
       </c>
       <c r="B57" s="3">
-        <v>179</v>
+        <v>40046</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>47</v>
@@ -2363,21 +2407,21 @@
         <v>50</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>49</v>
+        <v>179</v>
       </c>
       <c r="F57" s="1">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="G57" s="6" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="B58" s="3">
-        <v>161128</v>
+        <v>50025</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>47</v>
@@ -2386,113 +2430,113 @@
         <v>50</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="F58" s="1">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="G58" s="6" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B59" s="3">
-        <v>614</v>
+        <v>179</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D59" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F59" s="1">
+        <v>314</v>
+      </c>
+      <c r="G59" s="6" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A60" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B60" s="3">
+        <v>161128</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="F60" s="1">
+        <v>315</v>
+      </c>
+      <c r="G60" s="6" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A61" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B61" s="3">
+        <v>614</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D61" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E59" s="1" t="s">
+      <c r="E61" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F59" s="1">
+      <c r="F61" s="1">
         <v>321</v>
       </c>
-      <c r="G59" s="6" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>141</v>
-      </c>
-      <c r="B60" s="3">
-        <v>519700</v>
-      </c>
-      <c r="C60" t="s">
-        <v>157</v>
-      </c>
-      <c r="D60" t="s">
-        <v>147</v>
-      </c>
-      <c r="E60" t="s">
-        <v>148</v>
-      </c>
-      <c r="F60">
-        <v>411</v>
-      </c>
-      <c r="G60" s="6" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>158</v>
-      </c>
-      <c r="B61" s="3">
-        <v>519738</v>
-      </c>
-      <c r="C61" t="s">
-        <v>157</v>
-      </c>
-      <c r="D61" t="s">
-        <v>147</v>
-      </c>
-      <c r="E61" t="s">
-        <v>149</v>
-      </c>
-      <c r="F61">
-        <v>411</v>
-      </c>
       <c r="G61" s="6" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>144</v>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A62" s="1" t="s">
+        <v>174</v>
       </c>
       <c r="B62" s="3">
-        <v>519752</v>
-      </c>
-      <c r="C62" t="s">
-        <v>157</v>
-      </c>
-      <c r="D62" t="s">
-        <v>147</v>
-      </c>
-      <c r="E62" t="s">
-        <v>149</v>
-      </c>
-      <c r="F62">
-        <v>412</v>
-      </c>
-      <c r="G62" s="6" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>145</v>
+        <v>513520</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="F62" s="1">
+        <v>331</v>
+      </c>
+      <c r="G62" s="9" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A63" s="1" t="s">
+        <v>181</v>
       </c>
       <c r="B63" s="3">
-        <v>519755</v>
+        <v>1112</v>
       </c>
       <c r="C63" t="s">
         <v>157</v>
@@ -2501,21 +2545,21 @@
         <v>147</v>
       </c>
       <c r="E63" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F63">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="G63" s="6" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>164</v>
+        <v>141</v>
       </c>
       <c r="B64" s="3">
-        <v>485011</v>
+        <v>519700</v>
       </c>
       <c r="C64" t="s">
         <v>157</v>
@@ -2524,21 +2568,21 @@
         <v>147</v>
       </c>
       <c r="E64" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F64">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="G64" s="6" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="B65" s="3">
-        <v>1338</v>
+        <v>519738</v>
       </c>
       <c r="C65" t="s">
         <v>157</v>
@@ -2550,18 +2594,18 @@
         <v>149</v>
       </c>
       <c r="F65">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="G65" s="6" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>166</v>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A66" s="1" t="s">
+        <v>183</v>
       </c>
       <c r="B66" s="3">
-        <v>7749</v>
+        <v>8127</v>
       </c>
       <c r="C66" t="s">
         <v>157</v>
@@ -2573,18 +2617,18 @@
         <v>149</v>
       </c>
       <c r="F66">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="G66" s="6" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>167</v>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A67" s="1" t="s">
+        <v>182</v>
       </c>
       <c r="B67" s="3">
-        <v>6060</v>
+        <v>6585</v>
       </c>
       <c r="C67" t="s">
         <v>157</v>
@@ -2596,18 +2640,18 @@
         <v>149</v>
       </c>
       <c r="F67">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="G67" s="6" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>168</v>
+        <v>144</v>
       </c>
       <c r="B68" s="3">
-        <v>2147</v>
+        <v>519752</v>
       </c>
       <c r="C68" t="s">
         <v>157</v>
@@ -2625,146 +2669,150 @@
         <v>152</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A69" s="1" t="s">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>145</v>
+      </c>
+      <c r="B69" s="3">
+        <v>519755</v>
+      </c>
+      <c r="C69" t="s">
+        <v>157</v>
+      </c>
+      <c r="D69" t="s">
+        <v>147</v>
+      </c>
+      <c r="E69" t="s">
+        <v>149</v>
+      </c>
+      <c r="F69">
+        <v>412</v>
+      </c>
+      <c r="G69" s="6" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>164</v>
+      </c>
+      <c r="B70" s="3">
+        <v>485011</v>
+      </c>
+      <c r="C70" t="s">
+        <v>157</v>
+      </c>
+      <c r="D70" t="s">
+        <v>147</v>
+      </c>
+      <c r="E70" t="s">
+        <v>149</v>
+      </c>
+      <c r="F70">
+        <v>412</v>
+      </c>
+      <c r="G70" s="6" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>165</v>
+      </c>
+      <c r="B71" s="3">
+        <v>1338</v>
+      </c>
+      <c r="C71" t="s">
+        <v>157</v>
+      </c>
+      <c r="D71" t="s">
+        <v>147</v>
+      </c>
+      <c r="E71" t="s">
+        <v>149</v>
+      </c>
+      <c r="F71">
+        <v>412</v>
+      </c>
+      <c r="G71" s="6" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>166</v>
+      </c>
+      <c r="B72" s="3">
+        <v>7749</v>
+      </c>
+      <c r="C72" t="s">
+        <v>157</v>
+      </c>
+      <c r="D72" t="s">
+        <v>147</v>
+      </c>
+      <c r="E72" t="s">
+        <v>149</v>
+      </c>
+      <c r="F72">
+        <v>412</v>
+      </c>
+      <c r="G72" s="6" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>167</v>
+      </c>
+      <c r="B73" s="3">
+        <v>6060</v>
+      </c>
+      <c r="C73" t="s">
+        <v>157</v>
+      </c>
+      <c r="D73" t="s">
+        <v>147</v>
+      </c>
+      <c r="E73" t="s">
+        <v>149</v>
+      </c>
+      <c r="F73">
+        <v>412</v>
+      </c>
+      <c r="G73" s="6" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>168</v>
+      </c>
+      <c r="B74" s="3">
+        <v>2147</v>
+      </c>
+      <c r="C74" t="s">
+        <v>157</v>
+      </c>
+      <c r="D74" t="s">
+        <v>147</v>
+      </c>
+      <c r="E74" t="s">
+        <v>149</v>
+      </c>
+      <c r="F74">
+        <v>412</v>
+      </c>
+      <c r="G74" s="6" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A75" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B69" s="3">
+      <c r="B75" s="3">
         <v>3376</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D69" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E69" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F69" s="1">
-        <v>511</v>
-      </c>
-      <c r="G69" s="6" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A70" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="B70" s="3">
-        <v>519153</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D70" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E70" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F70" s="1">
-        <v>511</v>
-      </c>
-      <c r="G70" s="6" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A71" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B71" s="3">
-        <v>2086</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D71" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E71" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F71" s="1">
-        <v>511</v>
-      </c>
-      <c r="G71" s="6" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A72" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="B72" s="3">
-        <v>6320</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D72" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E72" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F72" s="1">
-        <v>511</v>
-      </c>
-      <c r="G72" s="6" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A73" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B73" s="3">
-        <v>204001</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D73" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E73" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F73" s="1">
-        <v>511</v>
-      </c>
-      <c r="G73" s="6"/>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A74" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B74" s="3">
-        <v>204007</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D74" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E74" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F74" s="1">
-        <v>511</v>
-      </c>
-      <c r="G74" s="6"/>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A75" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B75" s="3">
-        <v>131810</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>31</v>
@@ -2778,14 +2826,16 @@
       <c r="F75" s="1">
         <v>511</v>
       </c>
-      <c r="G75" s="6"/>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G75" s="6" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
-        <v>40</v>
+        <v>162</v>
       </c>
       <c r="B76" s="3">
-        <v>131800</v>
+        <v>519153</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>31</v>
@@ -2799,14 +2849,16 @@
       <c r="F76" s="1">
         <v>511</v>
       </c>
-      <c r="G76" s="6"/>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G76" s="6" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="B77" s="3">
-        <v>511010</v>
+        <v>2086</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>31</v>
@@ -2821,15 +2873,15 @@
         <v>511</v>
       </c>
       <c r="G77" s="6" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="B78" s="3">
-        <v>519776</v>
+        <v>6320</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>31</v>
@@ -2847,104 +2899,96 @@
         <v>152</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>140</v>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A79" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="B79" s="3">
-        <v>6793</v>
-      </c>
-      <c r="C79" t="s">
+        <v>204001</v>
+      </c>
+      <c r="C79" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D79" t="s">
+      <c r="D79" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E79" t="s">
-        <v>33</v>
+      <c r="E79" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="F79" s="1">
-        <v>512</v>
-      </c>
-      <c r="G79" s="6" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>142</v>
+        <v>511</v>
+      </c>
+      <c r="G79" s="6"/>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A80" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="B80" s="3">
-        <v>519718</v>
-      </c>
-      <c r="C80" t="s">
+        <v>204007</v>
+      </c>
+      <c r="C80" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D80" t="s">
+      <c r="D80" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E80" t="s">
-        <v>33</v>
+      <c r="E80" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="F80" s="1">
-        <v>512</v>
-      </c>
-      <c r="G80" s="6" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>143</v>
+        <v>511</v>
+      </c>
+      <c r="G80" s="6"/>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A81" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="B81" s="3">
-        <v>519723</v>
-      </c>
-      <c r="C81" t="s">
+        <v>131810</v>
+      </c>
+      <c r="C81" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D81" t="s">
+      <c r="D81" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E81" t="s">
-        <v>33</v>
+      <c r="E81" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="F81" s="1">
-        <v>512</v>
-      </c>
-      <c r="G81" s="6" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>146</v>
-      </c>
-      <c r="B82">
-        <v>519776</v>
-      </c>
-      <c r="C82" t="s">
+        <v>511</v>
+      </c>
+      <c r="G81" s="6"/>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A82" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B82" s="3">
+        <v>131800</v>
+      </c>
+      <c r="C82" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D82" t="s">
+      <c r="D82" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E82" t="s">
-        <v>33</v>
+      <c r="E82" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="F82" s="1">
-        <v>512</v>
-      </c>
-      <c r="G82" s="6" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+        <v>511</v>
+      </c>
+      <c r="G82" s="6"/>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B83" s="3">
-        <v>340001</v>
+        <v>511010</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>31</v>
@@ -2953,21 +2997,21 @@
         <v>34</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="F83" s="1">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="G83" s="6" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
-        <v>36</v>
+        <v>160</v>
       </c>
       <c r="B84" s="3">
-        <v>110027</v>
+        <v>519776</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>31</v>
@@ -2976,21 +3020,21 @@
         <v>34</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="F84" s="1">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="G84" s="6" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A85" s="1" t="s">
-        <v>159</v>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>140</v>
       </c>
       <c r="B85" s="3">
-        <v>164902</v>
+        <v>6793</v>
       </c>
       <c r="C85" t="s">
         <v>31</v>
@@ -3008,20 +3052,20 @@
         <v>152</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A86" s="1" t="s">
-        <v>35</v>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>142</v>
       </c>
       <c r="B86" s="3">
-        <v>519977</v>
-      </c>
-      <c r="C86" s="1" t="s">
+        <v>519718</v>
+      </c>
+      <c r="C86" t="s">
         <v>31</v>
       </c>
-      <c r="D86" s="1" t="s">
+      <c r="D86" t="s">
         <v>34</v>
       </c>
-      <c r="E86" s="1" t="s">
+      <c r="E86" t="s">
         <v>33</v>
       </c>
       <c r="F86" s="1">
@@ -3031,335 +3075,496 @@
         <v>152</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A87" s="1" t="s">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>143</v>
+      </c>
+      <c r="B87" s="3">
+        <v>519723</v>
+      </c>
+      <c r="C87" t="s">
+        <v>31</v>
+      </c>
+      <c r="D87" t="s">
+        <v>34</v>
+      </c>
+      <c r="E87" t="s">
+        <v>33</v>
+      </c>
+      <c r="F87" s="1">
+        <v>512</v>
+      </c>
+      <c r="G87" s="6" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>146</v>
+      </c>
+      <c r="B88">
+        <v>519776</v>
+      </c>
+      <c r="C88" t="s">
+        <v>31</v>
+      </c>
+      <c r="D88" t="s">
+        <v>34</v>
+      </c>
+      <c r="E88" t="s">
+        <v>33</v>
+      </c>
+      <c r="F88" s="1">
+        <v>512</v>
+      </c>
+      <c r="G88" s="6" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A89" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B89" s="3">
+        <v>340001</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F89" s="1">
+        <v>512</v>
+      </c>
+      <c r="G89" s="6" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A90" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B90" s="3">
+        <v>110027</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F90" s="1">
+        <v>512</v>
+      </c>
+      <c r="G90" s="6" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A91" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B91" s="3">
+        <v>164902</v>
+      </c>
+      <c r="C91" t="s">
+        <v>31</v>
+      </c>
+      <c r="D91" t="s">
+        <v>34</v>
+      </c>
+      <c r="E91" t="s">
+        <v>33</v>
+      </c>
+      <c r="F91" s="1">
+        <v>512</v>
+      </c>
+      <c r="G91" s="6" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A92" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B92" s="3">
+        <v>519977</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F92" s="1">
+        <v>512</v>
+      </c>
+      <c r="G92" s="6" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A93" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B87" s="3">
+      <c r="B93" s="3">
         <v>1061</v>
       </c>
-      <c r="C87" s="1" t="s">
+      <c r="C93" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D87" s="1" t="s">
+      <c r="D93" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E87" s="1" t="s">
+      <c r="E93" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F87" s="1">
+      <c r="F93" s="1">
         <v>521</v>
       </c>
-      <c r="G87" s="6" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A88" s="1" t="s">
+      <c r="G93" s="6" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A94" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B88" s="3">
+      <c r="B94" s="3">
         <v>518880</v>
       </c>
-      <c r="C88" s="1" t="s">
+      <c r="C94" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D88" s="1" t="s">
+      <c r="D94" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E88" s="1" t="s">
+      <c r="E94" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F88" s="1">
+      <c r="F94" s="1">
         <v>611</v>
       </c>
-      <c r="G88" s="6" t="s">
+      <c r="G94" s="6" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A89" s="1" t="s">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A95" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B89" s="3">
+      <c r="B95" s="3">
         <v>216</v>
       </c>
-      <c r="C89" s="1" t="s">
+      <c r="C95" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D89" s="1" t="s">
+      <c r="D95" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E89" s="1" t="s">
+      <c r="E95" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F89" s="1">
+      <c r="F95" s="1">
         <v>611</v>
       </c>
-      <c r="G89" s="6" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A90" s="1" t="s">
+      <c r="G95" s="6" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A96" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B90" s="3">
+      <c r="B96" s="3">
         <v>999979</v>
       </c>
-      <c r="C90" s="1" t="s">
+      <c r="C96" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D90" s="1" t="s">
+      <c r="D96" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E90" s="1" t="s">
+      <c r="E96" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F90" s="1">
+      <c r="F96" s="1">
         <v>612</v>
       </c>
-      <c r="G90" s="7"/>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A91" s="1" t="s">
+      <c r="G96" s="7"/>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A97" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="B91" s="3">
+      <c r="B97" s="3">
         <v>162411</v>
       </c>
-      <c r="C91" s="1" t="s">
+      <c r="C97" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D91" s="1" t="s">
+      <c r="D97" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E91" s="1" t="s">
+      <c r="E97" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F91" s="1">
+      <c r="F97" s="1">
         <v>613</v>
       </c>
-      <c r="G91" s="6" t="s">
+      <c r="G97" s="6" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A92" s="1" t="s">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A98" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B92" s="3">
+      <c r="B98" s="3">
         <v>501018</v>
       </c>
-      <c r="C92" s="1" t="s">
+      <c r="C98" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D92" s="1" t="s">
+      <c r="D98" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E92" s="1" t="s">
+      <c r="E98" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F92" s="1">
+      <c r="F98" s="1">
         <v>613</v>
       </c>
-      <c r="G92" s="6" t="s">
+      <c r="G98" s="6" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A93" s="1" t="s">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A99" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B99" s="3">
+        <v>160416</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F99" s="1">
+        <v>613</v>
+      </c>
+      <c r="G99" s="6" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A100" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B93" s="3">
+      <c r="B100" s="3">
         <v>999988</v>
       </c>
-      <c r="C93" s="1" t="s">
+      <c r="C100" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="D93" s="1" t="s">
+      <c r="D100" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="E93" s="1" t="s">
+      <c r="E100" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F93" s="1">
+      <c r="F100" s="1">
         <v>988</v>
       </c>
-      <c r="G93" s="7"/>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A94" s="1" t="s">
+      <c r="G100" s="7"/>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A101" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B94" s="3">
+      <c r="B101" s="3">
         <v>999989</v>
       </c>
-      <c r="C94" s="1" t="s">
+      <c r="C101" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="D94" s="1" t="s">
+      <c r="D101" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="E94" s="1" t="s">
+      <c r="E101" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="F94" s="1">
+      <c r="F101" s="1">
         <v>989</v>
       </c>
-      <c r="G94" s="7"/>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A95" s="1" t="s">
+      <c r="G101" s="7"/>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A102" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B95" s="3">
+      <c r="B102" s="3">
         <v>999997</v>
       </c>
-      <c r="C95" s="1" t="s">
+      <c r="C102" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D95" s="1" t="s">
+      <c r="D102" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="E95" s="1" t="s">
+      <c r="E102" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="F95" s="1">
+      <c r="F102" s="1">
         <v>997</v>
       </c>
-      <c r="G95" s="7"/>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A96" s="1" t="s">
+      <c r="G102" s="7"/>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A103" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B96" s="3">
+      <c r="B103" s="3">
         <v>999998</v>
       </c>
-      <c r="C96" s="1" t="s">
+      <c r="C103" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D96" s="1" t="s">
+      <c r="D103" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="E96" s="1" t="s">
+      <c r="E103" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="F96" s="1">
+      <c r="F103" s="1">
         <v>998</v>
       </c>
-      <c r="G96" s="7"/>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A97" s="1" t="s">
+      <c r="G103" s="7"/>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A104" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B97" s="3">
+      <c r="B104" s="3">
         <v>999999</v>
       </c>
-      <c r="C97" s="1" t="s">
+      <c r="C104" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D97" s="1" t="s">
+      <c r="D104" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="E97" s="1" t="s">
+      <c r="E104" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F97" s="1">
+      <c r="F104" s="1">
         <v>999</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A98" s="1" t="s">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A105" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B98" s="3">
+      <c r="B105" s="3">
         <v>511990</v>
       </c>
-      <c r="C98" s="1" t="s">
+      <c r="C105" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D98" s="1" t="s">
+      <c r="D105" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="E98" s="1" t="s">
+      <c r="E105" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F98" s="1">
+      <c r="F105" s="1">
         <v>999</v>
       </c>
-      <c r="G98" s="7"/>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A99" s="1" t="s">
+      <c r="G105" s="7"/>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A106" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B99" s="3">
+      <c r="B106" s="3">
         <v>940018</v>
       </c>
-      <c r="C99" s="1" t="s">
+      <c r="C106" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D99" s="1" t="s">
+      <c r="D106" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="E99" s="1" t="s">
+      <c r="E106" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F99" s="1">
+      <c r="F106" s="1">
         <v>999</v>
       </c>
-      <c r="G99" s="7"/>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A100" s="1" t="s">
+      <c r="G106" s="7"/>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A107" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B100" s="3">
+      <c r="B107" s="3">
         <v>511980</v>
       </c>
-      <c r="C100" s="1" t="s">
+      <c r="C107" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D100" s="1" t="s">
+      <c r="D107" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="E100" s="1" t="s">
+      <c r="E107" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F100" s="1">
+      <c r="F107" s="1">
         <v>999</v>
       </c>
-      <c r="G100" s="7"/>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A101" s="1" t="s">
+      <c r="G107" s="7"/>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A108" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B101" s="3">
+      <c r="B108" s="3">
         <v>511880</v>
       </c>
-      <c r="C101" s="1" t="s">
+      <c r="C108" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D101" s="1" t="s">
+      <c r="D108" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="E101" s="1" t="s">
+      <c r="E108" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F101" s="1">
+      <c r="F108" s="1">
         <v>999</v>
       </c>
-      <c r="G101" s="7"/>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G102" s="7"/>
+      <c r="G108" s="7"/>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G109" s="7"/>
     </row>
   </sheetData>
-  <sortState ref="A2:G101">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G108">
     <sortCondition ref="F35"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/scripts/src/config/资产配置分类表.xlsx
+++ b/scripts/src/config/资产配置分类表.xlsx
@@ -5,18 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\deal-record\category\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\finance-data\Scripts\src\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{559C8D5D-D976-454B-A191-7F2C9195451E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1C4D60E-EA2D-4E2C-A1CB-DAEA2F39FDEA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{A2CED1EC-343A-4CFC-976C-17F1726B3D68}"/>
+    <workbookView xWindow="7980" yWindow="6060" windowWidth="16830" windowHeight="13065" xr2:uid="{A2CED1EC-343A-4CFC-976C-17F1726B3D68}"/>
   </bookViews>
   <sheets>
     <sheet name="资产分类" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">资产分类!$A$1:$H$109</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">资产分类!$A$1:$H$113</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="764" uniqueCount="369">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="381">
   <si>
     <t>无息外借款</t>
   </si>
@@ -1282,6 +1282,54 @@
   </si>
   <si>
     <t>陆金所</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新华纯债添利B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新华纯债添利</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>009104</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>南方初元中短债C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>南方中短债</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>007150</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>国金及第中短债债券</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>国金中短债</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>003002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>008975</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>富国中证消费50ETF联接A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>富国消费50</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1733,10 +1781,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7002D332-7AD6-42B5-A99D-39647A47F5B6}">
-  <dimension ref="A1:H110"/>
+  <dimension ref="A1:H114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D45" sqref="D45:H45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2894,13 +2942,13 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>65</v>
+        <v>379</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>201</v>
+        <v>380</v>
       </c>
       <c r="C45" s="10" t="s">
-        <v>299</v>
+        <v>378</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>13</v>
@@ -2920,39 +2968,39 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>20</v>
+        <v>201</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>12</v>
+        <v>64</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>12</v>
+        <v>66</v>
       </c>
       <c r="G46" s="1">
-        <v>151</v>
-      </c>
-      <c r="H46" s="8" t="s">
-        <v>364</v>
+        <v>148</v>
+      </c>
+      <c r="H46" s="5" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C47" s="10" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>13</v>
@@ -2967,18 +3015,18 @@
         <v>151</v>
       </c>
       <c r="H47" s="8" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>13</v>
@@ -2993,18 +3041,18 @@
         <v>151</v>
       </c>
       <c r="H48" s="8" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C49" s="10" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>13</v>
@@ -3019,18 +3067,18 @@
         <v>151</v>
       </c>
       <c r="H49" s="8" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>13</v>
@@ -3045,18 +3093,18 @@
         <v>151</v>
       </c>
       <c r="H50" s="8" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C51" s="10" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>13</v>
@@ -3071,18 +3119,18 @@
         <v>151</v>
       </c>
       <c r="H51" s="8" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C52" s="10" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>13</v>
@@ -3097,44 +3145,44 @@
         <v>151</v>
       </c>
       <c r="H52" s="8" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>63</v>
+        <v>14</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>229</v>
+        <v>14</v>
       </c>
       <c r="C53" s="10" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>57</v>
+        <v>12</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="G53" s="1">
-        <v>211</v>
-      </c>
-      <c r="H53" s="5" t="s">
-        <v>151</v>
+        <v>151</v>
+      </c>
+      <c r="H53" s="8" t="s">
+        <v>364</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>62</v>
+        <v>229</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>54</v>
@@ -3148,19 +3196,19 @@
       <c r="G54" s="1">
         <v>211</v>
       </c>
-      <c r="H54" s="8" t="s">
-        <v>365</v>
+      <c r="H54" s="5" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C55" s="10" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>54</v>
@@ -3169,24 +3217,24 @@
         <v>57</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G55" s="1">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H55" s="8" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>202</v>
+        <v>60</v>
       </c>
       <c r="C56" s="10" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>54</v>
@@ -3195,36 +3243,36 @@
         <v>57</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="G56" s="1">
-        <v>213</v>
-      </c>
-      <c r="H56" s="5" t="s">
-        <v>151</v>
+        <v>212</v>
+      </c>
+      <c r="H56" s="8" t="s">
+        <v>364</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>230</v>
+        <v>202</v>
       </c>
       <c r="C57" s="10" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>54</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="G57" s="1">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="H57" s="5" t="s">
         <v>151</v>
@@ -3232,13 +3280,13 @@
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>159</v>
+        <v>55</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C58" s="10" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>54</v>
@@ -3258,25 +3306,25 @@
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>177</v>
+        <v>159</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>203</v>
+        <v>231</v>
       </c>
       <c r="C59" s="10" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>176</v>
+        <v>52</v>
       </c>
       <c r="G59" s="1">
-        <v>312</v>
+        <v>221</v>
       </c>
       <c r="H59" s="5" t="s">
         <v>151</v>
@@ -3284,13 +3332,13 @@
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>232</v>
+        <v>203</v>
       </c>
       <c r="C60" s="10" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>47</v>
@@ -3299,10 +3347,10 @@
         <v>50</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G60" s="1">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H60" s="5" t="s">
         <v>151</v>
@@ -3310,13 +3358,13 @@
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>51</v>
+        <v>174</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C61" s="10" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>47</v>
@@ -3325,10 +3373,10 @@
         <v>50</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>49</v>
+        <v>175</v>
       </c>
       <c r="G61" s="1">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H61" s="5" t="s">
         <v>151</v>
@@ -3336,13 +3384,13 @@
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>169</v>
+        <v>51</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>204</v>
+        <v>233</v>
       </c>
       <c r="C62" s="10" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>47</v>
@@ -3351,10 +3399,10 @@
         <v>50</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>168</v>
+        <v>49</v>
       </c>
       <c r="G62" s="1">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H62" s="5" t="s">
         <v>151</v>
@@ -3362,25 +3410,25 @@
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>48</v>
+        <v>169</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C63" s="10" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>47</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>45</v>
+        <v>168</v>
       </c>
       <c r="G63" s="1">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="H63" s="5" t="s">
         <v>151</v>
@@ -3388,91 +3436,91 @@
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>171</v>
+        <v>48</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>171</v>
+        <v>205</v>
       </c>
       <c r="C64" s="10" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>47</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>172</v>
+        <v>46</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>173</v>
+        <v>45</v>
       </c>
       <c r="G64" s="1">
-        <v>331</v>
-      </c>
-      <c r="H64" s="8" t="s">
-        <v>364</v>
+        <v>321</v>
+      </c>
+      <c r="H64" s="5" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>206</v>
+        <v>171</v>
       </c>
       <c r="C65" s="10" t="s">
-        <v>319</v>
-      </c>
-      <c r="D65" t="s">
-        <v>156</v>
-      </c>
-      <c r="E65" t="s">
-        <v>147</v>
-      </c>
-      <c r="F65" t="s">
-        <v>148</v>
-      </c>
-      <c r="G65">
-        <v>411</v>
-      </c>
-      <c r="H65" s="5" t="s">
-        <v>151</v>
+        <v>318</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="G65" s="1">
+        <v>331</v>
+      </c>
+      <c r="H65" s="8" t="s">
+        <v>364</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>252</v>
+        <v>178</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>253</v>
+        <v>206</v>
       </c>
       <c r="C66" s="10" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D66" t="s">
-        <v>250</v>
+        <v>156</v>
       </c>
       <c r="E66" t="s">
         <v>147</v>
       </c>
       <c r="F66" t="s">
-        <v>251</v>
+        <v>148</v>
       </c>
       <c r="G66">
         <v>411</v>
       </c>
-      <c r="H66" s="9" t="s">
-        <v>247</v>
+      <c r="H66" s="5" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="C67" s="10" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D67" t="s">
         <v>250</v>
@@ -3491,40 +3539,40 @@
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A68" t="s">
-        <v>141</v>
-      </c>
-      <c r="B68" t="s">
-        <v>141</v>
+      <c r="A68" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>249</v>
       </c>
       <c r="C68" s="10" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D68" t="s">
-        <v>156</v>
+        <v>250</v>
       </c>
       <c r="E68" t="s">
         <v>147</v>
       </c>
       <c r="F68" t="s">
-        <v>148</v>
+        <v>251</v>
       </c>
       <c r="G68">
         <v>411</v>
       </c>
-      <c r="H68" s="5" t="s">
-        <v>151</v>
+      <c r="H68" s="9" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>157</v>
+        <v>141</v>
       </c>
       <c r="B69" t="s">
-        <v>234</v>
+        <v>141</v>
       </c>
       <c r="C69" s="10" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D69" t="s">
         <v>156</v>
@@ -3533,7 +3581,7 @@
         <v>147</v>
       </c>
       <c r="F69" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G69">
         <v>411</v>
@@ -3544,13 +3592,13 @@
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>144</v>
+        <v>157</v>
       </c>
       <c r="B70" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C70" s="10" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D70" t="s">
         <v>156</v>
@@ -3562,7 +3610,7 @@
         <v>149</v>
       </c>
       <c r="G70">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="H70" s="5" t="s">
         <v>151</v>
@@ -3570,13 +3618,13 @@
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B71" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C71" s="10" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D71" t="s">
         <v>156</v>
@@ -3596,13 +3644,13 @@
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>162</v>
+        <v>145</v>
       </c>
       <c r="B72" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C72" s="10" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D72" t="s">
         <v>156</v>
@@ -3622,13 +3670,13 @@
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B73" t="s">
-        <v>207</v>
+        <v>237</v>
       </c>
       <c r="C73" s="10" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D73" t="s">
         <v>156</v>
@@ -3648,13 +3696,13 @@
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B74" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C74" s="10" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D74" t="s">
         <v>156</v>
@@ -3674,13 +3722,13 @@
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B75" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C75" s="10" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D75" t="s">
         <v>156</v>
@@ -3700,13 +3748,13 @@
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B76" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C76" s="10" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D76" t="s">
         <v>156</v>
@@ -3725,26 +3773,26 @@
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A77" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B77" s="1" t="s">
-        <v>238</v>
+      <c r="A77" t="s">
+        <v>166</v>
+      </c>
+      <c r="B77" t="s">
+        <v>210</v>
       </c>
       <c r="C77" s="10" t="s">
-        <v>331</v>
-      </c>
-      <c r="D77" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E77" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F77" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G77" s="1">
-        <v>511</v>
+        <v>330</v>
+      </c>
+      <c r="D77" t="s">
+        <v>156</v>
+      </c>
+      <c r="E77" t="s">
+        <v>147</v>
+      </c>
+      <c r="F77" t="s">
+        <v>149</v>
+      </c>
+      <c r="G77">
+        <v>412</v>
       </c>
       <c r="H77" s="5" t="s">
         <v>151</v>
@@ -3752,13 +3800,13 @@
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>160</v>
+        <v>44</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>211</v>
+        <v>238</v>
       </c>
       <c r="C78" s="10" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D78" s="1" t="s">
         <v>31</v>
@@ -3778,13 +3826,13 @@
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
-        <v>11</v>
+        <v>160</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C79" s="10" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D79" s="1" t="s">
         <v>31</v>
@@ -3804,13 +3852,13 @@
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>161</v>
+        <v>11</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C80" s="10" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>31</v>
@@ -3830,13 +3878,13 @@
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>43</v>
+        <v>161</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>43</v>
+        <v>213</v>
       </c>
       <c r="C81" s="10" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D81" s="1" t="s">
         <v>31</v>
@@ -3850,19 +3898,19 @@
       <c r="G81" s="1">
         <v>511</v>
       </c>
-      <c r="H81" s="8" t="s">
-        <v>364</v>
+      <c r="H81" s="5" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C82" s="10" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D82" s="1" t="s">
         <v>31</v>
@@ -3882,13 +3930,13 @@
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C83" s="10" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D83" s="1" t="s">
         <v>31</v>
@@ -3903,18 +3951,18 @@
         <v>511</v>
       </c>
       <c r="H83" s="8" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C84" s="10" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D84" s="1" t="s">
         <v>31</v>
@@ -3934,13 +3982,13 @@
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C85" s="10" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D85" s="1" t="s">
         <v>31</v>
@@ -3955,130 +4003,130 @@
         <v>511</v>
       </c>
       <c r="H85" s="8" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A86" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C86" s="10" t="s">
+        <v>339</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G86" s="1">
+        <v>511</v>
+      </c>
+      <c r="H86" s="8" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A86" t="s">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A87" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="C87" s="10" t="s">
+        <v>371</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G87" s="1">
+        <v>511</v>
+      </c>
+      <c r="H87" s="5" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A88" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="C88" s="10" t="s">
+        <v>377</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G88" s="1">
+        <v>511</v>
+      </c>
+      <c r="H88" s="5" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A89" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="C89" s="10" t="s">
+        <v>374</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G89" s="1">
+        <v>511</v>
+      </c>
+      <c r="H89" s="5" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
         <v>140</v>
       </c>
-      <c r="B86" t="s">
+      <c r="B90" t="s">
         <v>239</v>
       </c>
-      <c r="C86" s="10" t="s">
+      <c r="C90" s="10" t="s">
         <v>340</v>
       </c>
-      <c r="D86" t="s">
+      <c r="D90" t="s">
         <v>31</v>
       </c>
-      <c r="E86" t="s">
+      <c r="E90" t="s">
         <v>34</v>
       </c>
-      <c r="F86" t="s">
-        <v>33</v>
-      </c>
-      <c r="G86" s="1">
-        <v>512</v>
-      </c>
-      <c r="H86" s="5" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A87" t="s">
-        <v>142</v>
-      </c>
-      <c r="B87" t="s">
-        <v>142</v>
-      </c>
-      <c r="C87" s="10" t="s">
-        <v>341</v>
-      </c>
-      <c r="D87" t="s">
-        <v>31</v>
-      </c>
-      <c r="E87" t="s">
-        <v>34</v>
-      </c>
-      <c r="F87" t="s">
-        <v>33</v>
-      </c>
-      <c r="G87" s="1">
-        <v>512</v>
-      </c>
-      <c r="H87" s="5" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A88" t="s">
-        <v>143</v>
-      </c>
-      <c r="B88" t="s">
-        <v>143</v>
-      </c>
-      <c r="C88" s="10" t="s">
-        <v>342</v>
-      </c>
-      <c r="D88" t="s">
-        <v>31</v>
-      </c>
-      <c r="E88" t="s">
-        <v>34</v>
-      </c>
-      <c r="F88" t="s">
-        <v>33</v>
-      </c>
-      <c r="G88" s="1">
-        <v>512</v>
-      </c>
-      <c r="H88" s="5" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A89" t="s">
-        <v>146</v>
-      </c>
-      <c r="B89" t="s">
-        <v>240</v>
-      </c>
-      <c r="C89" s="11" t="s">
-        <v>343</v>
-      </c>
-      <c r="D89" t="s">
-        <v>31</v>
-      </c>
-      <c r="E89" t="s">
-        <v>34</v>
-      </c>
-      <c r="F89" t="s">
-        <v>33</v>
-      </c>
-      <c r="G89" s="1">
-        <v>512</v>
-      </c>
-      <c r="H89" s="5" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A90" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B90" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="C90" s="10" t="s">
-        <v>344</v>
-      </c>
-      <c r="D90" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E90" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F90" s="1" t="s">
+      <c r="F90" t="s">
         <v>33</v>
       </c>
       <c r="G90" s="1">
@@ -4089,22 +4137,22 @@
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A91" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B91" s="1" t="s">
-        <v>241</v>
+      <c r="A91" t="s">
+        <v>142</v>
+      </c>
+      <c r="B91" t="s">
+        <v>142</v>
       </c>
       <c r="C91" s="10" t="s">
-        <v>345</v>
-      </c>
-      <c r="D91" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="D91" t="s">
         <v>31</v>
       </c>
-      <c r="E91" s="1" t="s">
+      <c r="E91" t="s">
         <v>34</v>
       </c>
-      <c r="F91" s="1" t="s">
+      <c r="F91" t="s">
         <v>33</v>
       </c>
       <c r="G91" s="1">
@@ -4115,14 +4163,14 @@
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A92" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="B92" s="1" t="s">
-        <v>215</v>
+      <c r="A92" t="s">
+        <v>143</v>
+      </c>
+      <c r="B92" t="s">
+        <v>143</v>
       </c>
       <c r="C92" s="10" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="D92" t="s">
         <v>31</v>
@@ -4141,22 +4189,22 @@
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A93" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B93" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="C93" s="10" t="s">
-        <v>347</v>
-      </c>
-      <c r="D93" s="1" t="s">
+      <c r="A93" t="s">
+        <v>146</v>
+      </c>
+      <c r="B93" t="s">
+        <v>240</v>
+      </c>
+      <c r="C93" s="11" t="s">
+        <v>343</v>
+      </c>
+      <c r="D93" t="s">
         <v>31</v>
       </c>
-      <c r="E93" s="1" t="s">
+      <c r="E93" t="s">
         <v>34</v>
       </c>
-      <c r="F93" s="1" t="s">
+      <c r="F93" t="s">
         <v>33</v>
       </c>
       <c r="G93" s="1">
@@ -4168,25 +4216,25 @@
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>243</v>
+        <v>214</v>
       </c>
       <c r="C94" s="10" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="D94" s="1" t="s">
         <v>31</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G94" s="1">
-        <v>521</v>
+        <v>512</v>
       </c>
       <c r="H94" s="5" t="s">
         <v>151</v>
@@ -4194,51 +4242,51 @@
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>28</v>
+        <v>241</v>
       </c>
       <c r="C95" s="10" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="G95" s="1">
-        <v>611</v>
-      </c>
-      <c r="H95" s="8" t="s">
-        <v>364</v>
+        <v>512</v>
+      </c>
+      <c r="H95" s="5" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
-        <v>27</v>
+        <v>158</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>244</v>
+        <v>215</v>
       </c>
       <c r="C96" s="10" t="s">
-        <v>350</v>
-      </c>
-      <c r="D96" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E96" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F96" s="1" t="s">
-        <v>26</v>
+        <v>346</v>
+      </c>
+      <c r="D96" t="s">
+        <v>31</v>
+      </c>
+      <c r="E96" t="s">
+        <v>34</v>
+      </c>
+      <c r="F96" t="s">
+        <v>33</v>
       </c>
       <c r="G96" s="1">
-        <v>611</v>
+        <v>512</v>
       </c>
       <c r="H96" s="5" t="s">
         <v>151</v>
@@ -4246,65 +4294,65 @@
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>25</v>
+        <v>242</v>
       </c>
       <c r="C97" s="10" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="G97" s="1">
-        <v>612</v>
-      </c>
-      <c r="H97" s="12" t="s">
-        <v>366</v>
+        <v>512</v>
+      </c>
+      <c r="H97" s="5" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
-        <v>153</v>
+        <v>32</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>153</v>
+        <v>243</v>
       </c>
       <c r="C98" s="10" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="G98" s="1">
-        <v>613</v>
-      </c>
-      <c r="H98" s="8" t="s">
-        <v>365</v>
+        <v>521</v>
+      </c>
+      <c r="H98" s="5" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C99" s="10" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="D99" s="1" t="s">
         <v>22</v>
@@ -4313,10 +4361,10 @@
         <v>22</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="G99" s="1">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="H99" s="8" t="s">
         <v>364</v>
@@ -4324,13 +4372,13 @@
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
-        <v>170</v>
+        <v>27</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>216</v>
+        <v>244</v>
       </c>
       <c r="C100" s="10" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="D100" s="1" t="s">
         <v>22</v>
@@ -4339,140 +4387,140 @@
         <v>22</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="G100" s="1">
-        <v>613</v>
-      </c>
-      <c r="H100" s="8" t="s">
-        <v>365</v>
+        <v>611</v>
+      </c>
+      <c r="H100" s="5" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="C101" s="10" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>135</v>
+        <v>22</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>137</v>
+        <v>22</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="G101" s="1">
-        <v>988</v>
+        <v>612</v>
       </c>
       <c r="H101" s="12" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
-        <v>1</v>
+        <v>153</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>1</v>
+        <v>153</v>
       </c>
       <c r="C102" s="10" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>135</v>
+        <v>22</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>136</v>
+        <v>22</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>138</v>
+        <v>21</v>
       </c>
       <c r="G102" s="1">
-        <v>989</v>
-      </c>
-      <c r="H102" s="12" t="s">
-        <v>367</v>
+        <v>613</v>
+      </c>
+      <c r="H102" s="8" t="s">
+        <v>365</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="C103" s="10" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>131</v>
+        <v>22</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>133</v>
+        <v>21</v>
       </c>
       <c r="G103" s="1">
-        <v>997</v>
-      </c>
-      <c r="H103" s="12" t="s">
-        <v>367</v>
+        <v>613</v>
+      </c>
+      <c r="H103" s="8" t="s">
+        <v>364</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
-        <v>3</v>
+        <v>170</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>3</v>
+        <v>216</v>
       </c>
       <c r="C104" s="10" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>132</v>
+        <v>22</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>134</v>
+        <v>21</v>
       </c>
       <c r="G104" s="1">
-        <v>998</v>
-      </c>
-      <c r="H104" s="12" t="s">
-        <v>368</v>
+        <v>613</v>
+      </c>
+      <c r="H104" s="8" t="s">
+        <v>365</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C105" s="10" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>5</v>
+        <v>135</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G105" s="1">
-        <v>999</v>
+        <v>988</v>
       </c>
       <c r="H105" s="12" t="s">
         <v>367</v>
@@ -4480,51 +4528,51 @@
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C106" s="10" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>5</v>
+        <v>135</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>4</v>
+        <v>138</v>
       </c>
       <c r="G106" s="1">
-        <v>999</v>
-      </c>
-      <c r="H106" s="8" t="s">
-        <v>364</v>
+        <v>989</v>
+      </c>
+      <c r="H106" s="12" t="s">
+        <v>367</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C107" s="10" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="D107" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>4</v>
+        <v>133</v>
       </c>
       <c r="G107" s="1">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="H107" s="12" t="s">
         <v>367</v>
@@ -4532,39 +4580,39 @@
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C108" s="10" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="D108" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>4</v>
+        <v>134</v>
       </c>
       <c r="G108" s="1">
-        <v>999</v>
-      </c>
-      <c r="H108" s="8" t="s">
-        <v>364</v>
+        <v>998</v>
+      </c>
+      <c r="H108" s="12" t="s">
+        <v>368</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C109" s="10" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="D109" s="1" t="s">
         <v>5</v>
@@ -4578,15 +4626,119 @@
       <c r="G109" s="1">
         <v>999</v>
       </c>
-      <c r="H109" s="8" t="s">
+      <c r="H109" s="12" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A110" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C110" s="10" t="s">
+        <v>360</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E110" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="F110" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G110" s="1">
+        <v>999</v>
+      </c>
+      <c r="H110" s="8" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="H110" s="6"/>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A111" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C111" s="10" t="s">
+        <v>361</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E111" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="F111" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G111" s="1">
+        <v>999</v>
+      </c>
+      <c r="H111" s="12" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A112" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C112" s="10" t="s">
+        <v>362</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E112" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="F112" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G112" s="1">
+        <v>999</v>
+      </c>
+      <c r="H112" s="8" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A113" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C113" s="10" t="s">
+        <v>363</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E113" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="F113" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G113" s="1">
+        <v>999</v>
+      </c>
+      <c r="H113" s="8" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H114" s="6"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H109">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H113">
     <sortCondition ref="G37"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
